--- a/Lovejoy data table_Frequency of capture.xlsx
+++ b/Lovejoy data table_Frequency of capture.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrewnz\Documents\Lovejoy data\Lovejoy-mist-net\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="18195" windowHeight="11310"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>test change 1</t>
   </si>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -65,6 +70,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -113,7 +121,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -148,7 +156,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,16 +365,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Lovejoy data table_Frequency of capture.xlsx
+++ b/Lovejoy data table_Frequency of capture.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrewnz\Documents\Lovejoy data\Lovejoy-mist-net\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="18195" windowHeight="11310"/>
   </bookViews>
@@ -21,15 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>test change 1</t>
+    <t>Bird Species</t>
+  </si>
+  <si>
+    <t>Latin Name</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,7 +122,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,7 +157,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,22 +366,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:CB1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>6</v>
+      </c>
+      <c r="J1">
+        <v>7</v>
+      </c>
+      <c r="K1">
+        <v>8</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <v>10</v>
+      </c>
+      <c r="N1">
+        <v>11</v>
+      </c>
+      <c r="O1">
+        <v>12</v>
+      </c>
+      <c r="P1">
+        <v>13</v>
+      </c>
+      <c r="Q1">
+        <v>14</v>
+      </c>
+      <c r="R1">
+        <v>15</v>
+      </c>
+      <c r="S1">
+        <v>16</v>
+      </c>
+      <c r="T1">
+        <v>17</v>
+      </c>
+      <c r="U1">
+        <v>18</v>
+      </c>
+      <c r="V1">
+        <v>19</v>
+      </c>
+      <c r="W1">
+        <v>20</v>
+      </c>
+      <c r="X1">
+        <v>21</v>
+      </c>
+      <c r="Y1">
+        <v>22</v>
+      </c>
+      <c r="Z1">
+        <v>23</v>
+      </c>
+      <c r="AA1">
+        <v>24</v>
+      </c>
+      <c r="AB1">
+        <v>25</v>
+      </c>
+      <c r="AC1">
+        <v>26</v>
+      </c>
+      <c r="AD1">
+        <v>27</v>
+      </c>
+      <c r="AE1">
+        <v>28</v>
+      </c>
+      <c r="AF1">
+        <v>29</v>
+      </c>
+      <c r="AG1">
+        <v>30</v>
+      </c>
+      <c r="AH1">
+        <v>31</v>
+      </c>
+      <c r="AI1">
+        <v>32</v>
+      </c>
+      <c r="AJ1">
+        <v>33</v>
+      </c>
+      <c r="AK1">
+        <v>34</v>
+      </c>
+      <c r="AL1">
+        <v>35</v>
+      </c>
+      <c r="AM1">
+        <v>36</v>
+      </c>
+      <c r="AN1">
+        <v>37</v>
+      </c>
+      <c r="AO1">
+        <v>38</v>
+      </c>
+      <c r="AP1">
+        <v>39</v>
+      </c>
+      <c r="AQ1">
+        <v>40</v>
+      </c>
+      <c r="AR1">
+        <v>41</v>
+      </c>
+      <c r="AS1">
+        <v>42</v>
+      </c>
+      <c r="AT1">
+        <v>43</v>
+      </c>
+      <c r="AU1">
+        <v>44</v>
+      </c>
+      <c r="AV1">
+        <v>45</v>
+      </c>
+      <c r="AW1">
+        <v>46</v>
+      </c>
+      <c r="AX1">
+        <v>47</v>
+      </c>
+      <c r="AY1">
+        <v>48</v>
+      </c>
+      <c r="AZ1">
+        <v>49</v>
+      </c>
+      <c r="BA1">
+        <v>50</v>
+      </c>
+      <c r="BB1">
+        <v>51</v>
+      </c>
+      <c r="BC1">
+        <v>52</v>
+      </c>
+      <c r="BD1">
+        <v>53</v>
+      </c>
+      <c r="BE1">
+        <v>54</v>
+      </c>
+      <c r="BF1">
+        <v>55</v>
+      </c>
+      <c r="BG1">
+        <v>56</v>
+      </c>
+      <c r="BH1">
+        <v>57</v>
+      </c>
+      <c r="BI1">
+        <v>58</v>
+      </c>
+      <c r="BJ1">
+        <v>59</v>
+      </c>
+      <c r="BK1">
+        <v>60</v>
+      </c>
+      <c r="BL1">
+        <v>61</v>
+      </c>
+      <c r="BM1">
+        <v>62</v>
+      </c>
+      <c r="BN1">
+        <v>63</v>
+      </c>
+      <c r="BO1">
+        <v>64</v>
+      </c>
+      <c r="BP1">
+        <v>65</v>
+      </c>
+      <c r="BQ1">
+        <v>66</v>
+      </c>
+      <c r="BR1">
+        <v>67</v>
+      </c>
+      <c r="BS1">
+        <v>68</v>
+      </c>
+      <c r="BT1">
+        <v>69</v>
+      </c>
+      <c r="BU1">
+        <v>70</v>
+      </c>
+      <c r="BV1">
+        <v>71</v>
+      </c>
+      <c r="BW1">
+        <v>72</v>
+      </c>
+      <c r="BX1">
+        <v>73</v>
+      </c>
+      <c r="BY1">
+        <v>74</v>
+      </c>
+      <c r="BZ1">
+        <v>75</v>
+      </c>
+      <c r="CA1">
+        <v>76</v>
+      </c>
+      <c r="CB1">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Lovejoy data table_Frequency of capture.xlsx
+++ b/Lovejoy data table_Frequency of capture.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="8">
   <si>
     <t>Bird Species</t>
   </si>
@@ -25,6 +25,21 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Threnetes leucurus</t>
+  </si>
+  <si>
+    <t>Momotus momota</t>
+  </si>
+  <si>
+    <t>Galbula albirostris</t>
+  </si>
+  <si>
+    <t>Bucco capensis</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -366,10 +381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CB1"/>
+  <dimension ref="A1:CB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,6 +630,3218 @@
       </c>
       <c r="CB1">
         <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>1</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>1</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>130</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>131</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>242</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>7</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>2</v>
+      </c>
+      <c r="Z10">
+        <v>5</v>
+      </c>
+      <c r="AA10">
+        <v>2</v>
+      </c>
+      <c r="AB10">
+        <v>7</v>
+      </c>
+      <c r="AC10">
+        <v>2</v>
+      </c>
+      <c r="AD10">
+        <v>2</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>2</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI10">
+        <v>4</v>
+      </c>
+      <c r="AJ10">
+        <v>3</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>5</v>
+      </c>
+      <c r="AN10">
+        <v>2</v>
+      </c>
+      <c r="AO10">
+        <v>2</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>2</v>
+      </c>
+      <c r="AR10">
+        <v>7</v>
+      </c>
+      <c r="AS10">
+        <v>6</v>
+      </c>
+      <c r="AT10">
+        <v>3</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>8</v>
+      </c>
+      <c r="AW10">
+        <v>10</v>
+      </c>
+      <c r="AX10">
+        <v>13</v>
+      </c>
+      <c r="AY10">
+        <v>2</v>
+      </c>
+      <c r="AZ10">
+        <v>3</v>
+      </c>
+      <c r="BA10">
+        <v>4</v>
+      </c>
+      <c r="BB10">
+        <v>12</v>
+      </c>
+      <c r="BC10">
+        <v>10</v>
+      </c>
+      <c r="BD10">
+        <v>10</v>
+      </c>
+      <c r="BE10">
+        <v>3</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>5</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>1</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>1</v>
+      </c>
+      <c r="BR10">
+        <v>3</v>
+      </c>
+      <c r="BS10">
+        <v>1</v>
+      </c>
+      <c r="BT10">
+        <v>1</v>
+      </c>
+      <c r="BU10">
+        <v>13</v>
+      </c>
+      <c r="BV10">
+        <v>4</v>
+      </c>
+      <c r="BW10">
+        <v>4</v>
+      </c>
+      <c r="BX10">
+        <v>2</v>
+      </c>
+      <c r="BY10">
+        <v>1</v>
+      </c>
+      <c r="BZ10">
+        <v>1</v>
+      </c>
+      <c r="CA10">
+        <v>3</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>132</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>0</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>0</v>
+      </c>
+      <c r="BY11">
+        <v>0</v>
+      </c>
+      <c r="BZ11">
+        <v>0</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>133</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
+        <v>0</v>
+      </c>
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>0</v>
+      </c>
+      <c r="BW12">
+        <v>0</v>
+      </c>
+      <c r="BX12">
+        <v>0</v>
+      </c>
+      <c r="BY12">
+        <v>0</v>
+      </c>
+      <c r="BZ12">
+        <v>0</v>
+      </c>
+      <c r="CA12">
+        <v>0</v>
+      </c>
+      <c r="CB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>134</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>1</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>1</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>3</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
+        <v>0</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <v>0</v>
+      </c>
+      <c r="BW13">
+        <v>0</v>
+      </c>
+      <c r="BX13">
+        <v>0</v>
+      </c>
+      <c r="BY13">
+        <v>0</v>
+      </c>
+      <c r="BZ13">
+        <v>0</v>
+      </c>
+      <c r="CA13">
+        <v>0</v>
+      </c>
+      <c r="CB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>135</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>2</v>
+      </c>
+      <c r="AD14">
+        <v>2</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>2</v>
+      </c>
+      <c r="AH14">
+        <v>2</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+      <c r="AJ14">
+        <v>2</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>1</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>1</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <v>2</v>
+      </c>
+      <c r="AV14">
+        <v>1</v>
+      </c>
+      <c r="AW14">
+        <v>6</v>
+      </c>
+      <c r="AX14">
+        <v>3</v>
+      </c>
+      <c r="AY14">
+        <v>1</v>
+      </c>
+      <c r="AZ14">
+        <v>1</v>
+      </c>
+      <c r="BA14">
+        <v>4</v>
+      </c>
+      <c r="BB14">
+        <v>2</v>
+      </c>
+      <c r="BC14">
+        <v>1</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>1</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>3</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>1</v>
+      </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>2</v>
+      </c>
+      <c r="BO14">
+        <v>2</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>1</v>
+      </c>
+      <c r="BR14">
+        <v>0</v>
+      </c>
+      <c r="BS14">
+        <v>0</v>
+      </c>
+      <c r="BT14">
+        <v>2</v>
+      </c>
+      <c r="BU14">
+        <v>1</v>
+      </c>
+      <c r="BV14">
+        <v>0</v>
+      </c>
+      <c r="BW14">
+        <v>1</v>
+      </c>
+      <c r="BX14">
+        <v>0</v>
+      </c>
+      <c r="BY14">
+        <v>3</v>
+      </c>
+      <c r="BZ14">
+        <v>2</v>
+      </c>
+      <c r="CA14">
+        <v>1</v>
+      </c>
+      <c r="CB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>136</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>137</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>140</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>142</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>143</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Lovejoy data table_Frequency of capture.xlsx
+++ b/Lovejoy data table_Frequency of capture.xlsx
@@ -385,7 +385,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lovejoy data table_Frequency of capture.xlsx
+++ b/Lovejoy data table_Frequency of capture.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>Bird Species</t>
   </si>
@@ -40,6 +40,27 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Eurypyga helias</t>
+  </si>
+  <si>
+    <t>Trogon rufus</t>
+  </si>
+  <si>
+    <t>Corythopis torquatus</t>
+  </si>
+  <si>
+    <t>Phoenicircus carnifex</t>
+  </si>
+  <si>
+    <t>Dendrocolaptes certhia</t>
+  </si>
+  <si>
+    <t>Synallaxis gujanensis</t>
+  </si>
+  <si>
+    <t>Chaetura spinicaudus</t>
   </si>
 </sst>
 </file>
@@ -383,9 +404,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="A14:XFD14"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +897,7 @@
     </row>
     <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -2089,7 +2110,7 @@
         <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2331,7 +2352,7 @@
         <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2815,7 +2836,7 @@
         <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -3805,7 +3826,7 @@
         <v>139</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>33</v>
@@ -3816,7 +3837,7 @@
         <v>140</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -3827,7 +3848,7 @@
         <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -3838,7 +3859,7 @@
         <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>1</v>

--- a/Lovejoy data table_Frequency of capture.xlsx
+++ b/Lovejoy data table_Frequency of capture.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="15">
   <si>
     <t>Bird Species</t>
   </si>
@@ -404,9 +404,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3809,6 +3809,237 @@
       <c r="C15">
         <v>11</v>
       </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>1</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>1</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15">
+        <v>0</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>0</v>
+      </c>
+      <c r="BR15">
+        <v>1</v>
+      </c>
+      <c r="BS15">
+        <v>0</v>
+      </c>
+      <c r="BT15">
+        <v>1</v>
+      </c>
+      <c r="BU15">
+        <v>0</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW15">
+        <v>0</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>7</v>
+      </c>
+      <c r="BY15">
+        <v>0</v>
+      </c>
+      <c r="BZ15">
+        <v>0</v>
+      </c>
+      <c r="CA15">
+        <v>0</v>
+      </c>
+      <c r="CB15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -3820,8 +4051,239 @@
       <c r="C16">
         <v>0</v>
       </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <v>0</v>
+      </c>
+      <c r="BR16">
+        <v>0</v>
+      </c>
+      <c r="BS16">
+        <v>0</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
+        <v>0</v>
+      </c>
+      <c r="BW16">
+        <v>0</v>
+      </c>
+      <c r="BX16">
+        <v>0</v>
+      </c>
+      <c r="BY16">
+        <v>0</v>
+      </c>
+      <c r="BZ16">
+        <v>0</v>
+      </c>
+      <c r="CA16">
+        <v>0</v>
+      </c>
+      <c r="CB16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>139</v>
       </c>
@@ -3831,8 +4293,239 @@
       <c r="C17">
         <v>33</v>
       </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>1</v>
+      </c>
+      <c r="AS17">
+        <v>1</v>
+      </c>
+      <c r="AT17">
+        <v>1</v>
+      </c>
+      <c r="AU17">
+        <v>1</v>
+      </c>
+      <c r="AV17">
+        <v>1</v>
+      </c>
+      <c r="AW17">
+        <v>2</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>1</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>3</v>
+      </c>
+      <c r="BB17">
+        <v>2</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>2</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
+        <v>0</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>1</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>0</v>
+      </c>
+      <c r="BR17">
+        <v>0</v>
+      </c>
+      <c r="BS17">
+        <v>0</v>
+      </c>
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BU17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>0</v>
+      </c>
+      <c r="BW17">
+        <v>0</v>
+      </c>
+      <c r="BX17">
+        <v>1</v>
+      </c>
+      <c r="BY17">
+        <v>1</v>
+      </c>
+      <c r="BZ17">
+        <v>1</v>
+      </c>
+      <c r="CA17">
+        <v>0</v>
+      </c>
+      <c r="CB17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>140</v>
       </c>
@@ -3842,8 +4535,239 @@
       <c r="C18">
         <v>2</v>
       </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>1</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
+        <v>0</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <v>0</v>
+      </c>
+      <c r="BL18">
+        <v>0</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <v>0</v>
+      </c>
+      <c r="BP18">
+        <v>0</v>
+      </c>
+      <c r="BQ18">
+        <v>0</v>
+      </c>
+      <c r="BR18">
+        <v>0</v>
+      </c>
+      <c r="BS18">
+        <v>0</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW18">
+        <v>0</v>
+      </c>
+      <c r="BX18">
+        <v>0</v>
+      </c>
+      <c r="BY18">
+        <v>0</v>
+      </c>
+      <c r="BZ18">
+        <v>0</v>
+      </c>
+      <c r="CA18">
+        <v>0</v>
+      </c>
+      <c r="CB18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>142</v>
       </c>
@@ -3853,8 +4777,239 @@
       <c r="C19">
         <v>8</v>
       </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>2</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>1</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19">
+        <v>0</v>
+      </c>
+      <c r="BQ19">
+        <v>0</v>
+      </c>
+      <c r="BR19">
+        <v>0</v>
+      </c>
+      <c r="BS19">
+        <v>0</v>
+      </c>
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BU19">
+        <v>0</v>
+      </c>
+      <c r="BV19">
+        <v>0</v>
+      </c>
+      <c r="BW19">
+        <v>0</v>
+      </c>
+      <c r="BX19">
+        <v>0</v>
+      </c>
+      <c r="BY19">
+        <v>0</v>
+      </c>
+      <c r="BZ19">
+        <v>0</v>
+      </c>
+      <c r="CA19">
+        <v>0</v>
+      </c>
+      <c r="CB19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>143</v>
       </c>
@@ -3863,6 +5018,237 @@
       </c>
       <c r="C20">
         <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>0</v>
+      </c>
+      <c r="BR20">
+        <v>0</v>
+      </c>
+      <c r="BS20">
+        <v>0</v>
+      </c>
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BU20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>0</v>
+      </c>
+      <c r="BW20">
+        <v>0</v>
+      </c>
+      <c r="BX20">
+        <v>0</v>
+      </c>
+      <c r="BY20">
+        <v>0</v>
+      </c>
+      <c r="BZ20">
+        <v>0</v>
+      </c>
+      <c r="CA20">
+        <v>0</v>
+      </c>
+      <c r="CB20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Lovejoy data table_Frequency of capture.xlsx
+++ b/Lovejoy data table_Frequency of capture.xlsx
@@ -404,9 +404,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S24" sqref="S24"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lovejoy data table_Frequency of capture.xlsx
+++ b/Lovejoy data table_Frequency of capture.xlsx
@@ -402,11 +402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CB20"/>
+  <dimension ref="A1:CB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BK35" sqref="BK35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5251,8 +5251,5267 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>150</v>
+      </c>
+      <c r="C21">
+        <v>129</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>4</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <v>4</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>4</v>
+      </c>
+      <c r="W21">
+        <v>4</v>
+      </c>
+      <c r="X21">
+        <v>2</v>
+      </c>
+      <c r="Y21">
+        <v>4</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>7</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>5</v>
+      </c>
+      <c r="AD21">
+        <v>4</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>2</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>3</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
+      </c>
+      <c r="AJ21">
+        <v>3</v>
+      </c>
+      <c r="AK21">
+        <v>2</v>
+      </c>
+      <c r="AL21">
+        <v>2</v>
+      </c>
+      <c r="AM21">
+        <v>5</v>
+      </c>
+      <c r="AN21">
+        <v>2</v>
+      </c>
+      <c r="AO21">
+        <v>3</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>4</v>
+      </c>
+      <c r="AR21">
+        <v>1</v>
+      </c>
+      <c r="AS21">
+        <v>2</v>
+      </c>
+      <c r="AT21">
+        <v>2</v>
+      </c>
+      <c r="AU21">
+        <v>2</v>
+      </c>
+      <c r="AV21">
+        <v>1</v>
+      </c>
+      <c r="AW21">
+        <v>4</v>
+      </c>
+      <c r="AX21">
+        <v>1</v>
+      </c>
+      <c r="AY21">
+        <v>5</v>
+      </c>
+      <c r="AZ21">
+        <v>3</v>
+      </c>
+      <c r="BA21">
+        <v>1</v>
+      </c>
+      <c r="BB21">
+        <v>1</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>1</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>1</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
+      <c r="BL21">
+        <v>5</v>
+      </c>
+      <c r="BM21">
+        <v>1</v>
+      </c>
+      <c r="BN21">
+        <v>3</v>
+      </c>
+      <c r="BO21">
+        <v>2</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>0</v>
+      </c>
+      <c r="BR21">
+        <v>0</v>
+      </c>
+      <c r="BS21">
+        <v>0</v>
+      </c>
+      <c r="BT21">
+        <v>0</v>
+      </c>
+      <c r="BU21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
+        <v>0</v>
+      </c>
+      <c r="BW21">
+        <v>0</v>
+      </c>
+      <c r="BX21">
+        <v>1</v>
+      </c>
+      <c r="BY21">
+        <v>0</v>
+      </c>
+      <c r="BZ21">
+        <v>0</v>
+      </c>
+      <c r="CA21">
+        <v>0</v>
+      </c>
+      <c r="CB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>155</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>0</v>
+      </c>
+      <c r="BL22">
+        <v>0</v>
+      </c>
+      <c r="BM22">
+        <v>0</v>
+      </c>
+      <c r="BN22">
+        <v>0</v>
+      </c>
+      <c r="BO22">
+        <v>0</v>
+      </c>
+      <c r="BP22">
+        <v>0</v>
+      </c>
+      <c r="BQ22">
+        <v>0</v>
+      </c>
+      <c r="BR22">
+        <v>0</v>
+      </c>
+      <c r="BS22">
+        <v>0</v>
+      </c>
+      <c r="BT22">
+        <v>0</v>
+      </c>
+      <c r="BU22">
+        <v>0</v>
+      </c>
+      <c r="BV22">
+        <v>0</v>
+      </c>
+      <c r="BW22">
+        <v>0</v>
+      </c>
+      <c r="BX22">
+        <v>0</v>
+      </c>
+      <c r="BY22">
+        <v>0</v>
+      </c>
+      <c r="BZ22">
+        <v>0</v>
+      </c>
+      <c r="CA22">
+        <v>0</v>
+      </c>
+      <c r="CB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>156</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>2</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>2</v>
+      </c>
+      <c r="BC23">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>0</v>
+      </c>
+      <c r="BL23">
+        <v>0</v>
+      </c>
+      <c r="BM23">
+        <v>0</v>
+      </c>
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23">
+        <v>0</v>
+      </c>
+      <c r="BP23">
+        <v>0</v>
+      </c>
+      <c r="BQ23">
+        <v>0</v>
+      </c>
+      <c r="BR23">
+        <v>0</v>
+      </c>
+      <c r="BS23">
+        <v>0</v>
+      </c>
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BU23">
+        <v>0</v>
+      </c>
+      <c r="BV23">
+        <v>2</v>
+      </c>
+      <c r="BW23">
+        <v>0</v>
+      </c>
+      <c r="BX23">
+        <v>0</v>
+      </c>
+      <c r="BY23">
+        <v>0</v>
+      </c>
+      <c r="BZ23">
+        <v>0</v>
+      </c>
+      <c r="CA23">
+        <v>0</v>
+      </c>
+      <c r="CB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>160</v>
+      </c>
+      <c r="C24">
+        <v>226</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>16</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>11</v>
+      </c>
+      <c r="J24">
+        <v>11</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>6</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>5</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>5</v>
+      </c>
+      <c r="U24">
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>2</v>
+      </c>
+      <c r="X24">
+        <v>2</v>
+      </c>
+      <c r="Y24">
+        <v>4</v>
+      </c>
+      <c r="Z24">
+        <v>3</v>
+      </c>
+      <c r="AA24">
+        <v>5</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>8</v>
+      </c>
+      <c r="AD24">
+        <v>4</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
+        <v>2</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>6</v>
+      </c>
+      <c r="AJ24">
+        <v>2</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
+        <v>2</v>
+      </c>
+      <c r="AN24">
+        <v>3</v>
+      </c>
+      <c r="AO24">
+        <v>2</v>
+      </c>
+      <c r="AP24">
+        <v>3</v>
+      </c>
+      <c r="AQ24">
+        <v>1</v>
+      </c>
+      <c r="AR24">
+        <v>3</v>
+      </c>
+      <c r="AS24">
+        <v>2</v>
+      </c>
+      <c r="AT24">
+        <v>1</v>
+      </c>
+      <c r="AU24">
+        <v>4</v>
+      </c>
+      <c r="AV24">
+        <v>1</v>
+      </c>
+      <c r="AW24">
+        <v>2</v>
+      </c>
+      <c r="AX24">
+        <v>3</v>
+      </c>
+      <c r="AY24">
+        <v>1</v>
+      </c>
+      <c r="AZ24">
+        <v>1</v>
+      </c>
+      <c r="BA24">
+        <v>3</v>
+      </c>
+      <c r="BB24">
+        <v>4</v>
+      </c>
+      <c r="BC24">
+        <v>2</v>
+      </c>
+      <c r="BD24">
+        <v>2</v>
+      </c>
+      <c r="BE24">
+        <v>1</v>
+      </c>
+      <c r="BF24">
+        <v>1</v>
+      </c>
+      <c r="BG24">
+        <v>3</v>
+      </c>
+      <c r="BH24">
+        <v>1</v>
+      </c>
+      <c r="BI24">
+        <v>1</v>
+      </c>
+      <c r="BJ24">
+        <v>1</v>
+      </c>
+      <c r="BK24">
+        <v>6</v>
+      </c>
+      <c r="BL24">
+        <v>2</v>
+      </c>
+      <c r="BM24">
+        <v>0</v>
+      </c>
+      <c r="BN24">
+        <v>1</v>
+      </c>
+      <c r="BO24">
+        <v>5</v>
+      </c>
+      <c r="BP24">
+        <v>2</v>
+      </c>
+      <c r="BQ24">
+        <v>1</v>
+      </c>
+      <c r="BR24">
+        <v>0</v>
+      </c>
+      <c r="BS24">
+        <v>0</v>
+      </c>
+      <c r="BT24">
+        <v>1</v>
+      </c>
+      <c r="BU24">
+        <v>2</v>
+      </c>
+      <c r="BV24">
+        <v>0</v>
+      </c>
+      <c r="BW24">
+        <v>1</v>
+      </c>
+      <c r="BX24">
+        <v>2</v>
+      </c>
+      <c r="BY24">
+        <v>1</v>
+      </c>
+      <c r="BZ24">
+        <v>4</v>
+      </c>
+      <c r="CA24">
+        <v>1</v>
+      </c>
+      <c r="CB24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>201</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
+        <v>0</v>
+      </c>
+      <c r="BI25">
+        <v>0</v>
+      </c>
+      <c r="BJ25">
+        <v>0</v>
+      </c>
+      <c r="BK25">
+        <v>0</v>
+      </c>
+      <c r="BL25">
+        <v>0</v>
+      </c>
+      <c r="BM25">
+        <v>0</v>
+      </c>
+      <c r="BN25">
+        <v>0</v>
+      </c>
+      <c r="BO25">
+        <v>0</v>
+      </c>
+      <c r="BP25">
+        <v>0</v>
+      </c>
+      <c r="BQ25">
+        <v>0</v>
+      </c>
+      <c r="BR25">
+        <v>0</v>
+      </c>
+      <c r="BS25">
+        <v>0</v>
+      </c>
+      <c r="BT25">
+        <v>0</v>
+      </c>
+      <c r="BU25">
+        <v>0</v>
+      </c>
+      <c r="BV25">
+        <v>0</v>
+      </c>
+      <c r="BW25">
+        <v>0</v>
+      </c>
+      <c r="BX25">
+        <v>0</v>
+      </c>
+      <c r="BY25">
+        <v>0</v>
+      </c>
+      <c r="BZ25">
+        <v>0</v>
+      </c>
+      <c r="CA25">
+        <v>0</v>
+      </c>
+      <c r="CB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>208</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>0</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <v>0</v>
+      </c>
+      <c r="BI26">
+        <v>0</v>
+      </c>
+      <c r="BJ26">
+        <v>0</v>
+      </c>
+      <c r="BK26">
+        <v>0</v>
+      </c>
+      <c r="BL26">
+        <v>0</v>
+      </c>
+      <c r="BM26">
+        <v>0</v>
+      </c>
+      <c r="BN26">
+        <v>0</v>
+      </c>
+      <c r="BO26">
+        <v>0</v>
+      </c>
+      <c r="BP26">
+        <v>0</v>
+      </c>
+      <c r="BQ26">
+        <v>0</v>
+      </c>
+      <c r="BR26">
+        <v>0</v>
+      </c>
+      <c r="BS26">
+        <v>0</v>
+      </c>
+      <c r="BT26">
+        <v>0</v>
+      </c>
+      <c r="BU26">
+        <v>0</v>
+      </c>
+      <c r="BV26">
+        <v>0</v>
+      </c>
+      <c r="BW26">
+        <v>0</v>
+      </c>
+      <c r="BX26">
+        <v>0</v>
+      </c>
+      <c r="BY26">
+        <v>0</v>
+      </c>
+      <c r="BZ26">
+        <v>0</v>
+      </c>
+      <c r="CA26">
+        <v>0</v>
+      </c>
+      <c r="CB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>209</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>1</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>1</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>1</v>
+      </c>
+      <c r="BA27">
+        <v>4</v>
+      </c>
+      <c r="BB27">
+        <v>2</v>
+      </c>
+      <c r="BC27">
+        <v>1</v>
+      </c>
+      <c r="BD27">
+        <v>1</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27">
+        <v>1</v>
+      </c>
+      <c r="BJ27">
+        <v>0</v>
+      </c>
+      <c r="BK27">
+        <v>0</v>
+      </c>
+      <c r="BL27">
+        <v>0</v>
+      </c>
+      <c r="BM27">
+        <v>0</v>
+      </c>
+      <c r="BN27">
+        <v>0</v>
+      </c>
+      <c r="BO27">
+        <v>0</v>
+      </c>
+      <c r="BP27">
+        <v>1</v>
+      </c>
+      <c r="BQ27">
+        <v>0</v>
+      </c>
+      <c r="BR27">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>0</v>
+      </c>
+      <c r="BT27">
+        <v>0</v>
+      </c>
+      <c r="BU27">
+        <v>0</v>
+      </c>
+      <c r="BV27">
+        <v>0</v>
+      </c>
+      <c r="BW27">
+        <v>0</v>
+      </c>
+      <c r="BX27">
+        <v>0</v>
+      </c>
+      <c r="BY27">
+        <v>1</v>
+      </c>
+      <c r="BZ27">
+        <v>0</v>
+      </c>
+      <c r="CA27">
+        <v>0</v>
+      </c>
+      <c r="CB27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>225</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
+        <v>0</v>
+      </c>
+      <c r="BI28">
+        <v>0</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>0</v>
+      </c>
+      <c r="BL28">
+        <v>0</v>
+      </c>
+      <c r="BM28">
+        <v>0</v>
+      </c>
+      <c r="BN28">
+        <v>0</v>
+      </c>
+      <c r="BO28">
+        <v>0</v>
+      </c>
+      <c r="BP28">
+        <v>0</v>
+      </c>
+      <c r="BQ28">
+        <v>0</v>
+      </c>
+      <c r="BR28">
+        <v>0</v>
+      </c>
+      <c r="BS28">
+        <v>0</v>
+      </c>
+      <c r="BT28">
+        <v>0</v>
+      </c>
+      <c r="BU28">
+        <v>0</v>
+      </c>
+      <c r="BV28">
+        <v>0</v>
+      </c>
+      <c r="BW28">
+        <v>0</v>
+      </c>
+      <c r="BX28">
+        <v>0</v>
+      </c>
+      <c r="BY28">
+        <v>0</v>
+      </c>
+      <c r="BZ28">
+        <v>0</v>
+      </c>
+      <c r="CA28">
+        <v>0</v>
+      </c>
+      <c r="CB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>231</v>
+      </c>
+      <c r="C29">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>3</v>
+      </c>
+      <c r="AU29">
+        <v>1</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>1</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>1</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>0</v>
+      </c>
+      <c r="BI29">
+        <v>0</v>
+      </c>
+      <c r="BJ29">
+        <v>0</v>
+      </c>
+      <c r="BK29">
+        <v>1</v>
+      </c>
+      <c r="BL29">
+        <v>0</v>
+      </c>
+      <c r="BM29">
+        <v>0</v>
+      </c>
+      <c r="BN29">
+        <v>0</v>
+      </c>
+      <c r="BO29">
+        <v>0</v>
+      </c>
+      <c r="BP29">
+        <v>0</v>
+      </c>
+      <c r="BQ29">
+        <v>0</v>
+      </c>
+      <c r="BR29">
+        <v>1</v>
+      </c>
+      <c r="BS29">
+        <v>0</v>
+      </c>
+      <c r="BT29">
+        <v>1</v>
+      </c>
+      <c r="BU29">
+        <v>1</v>
+      </c>
+      <c r="BV29">
+        <v>0</v>
+      </c>
+      <c r="BW29">
+        <v>2</v>
+      </c>
+      <c r="BX29">
+        <v>0</v>
+      </c>
+      <c r="BY29">
+        <v>1</v>
+      </c>
+      <c r="BZ29">
+        <v>0</v>
+      </c>
+      <c r="CA29">
+        <v>1</v>
+      </c>
+      <c r="CB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>232</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30">
+        <v>0</v>
+      </c>
+      <c r="BG30">
+        <v>0</v>
+      </c>
+      <c r="BH30">
+        <v>0</v>
+      </c>
+      <c r="BI30">
+        <v>0</v>
+      </c>
+      <c r="BJ30">
+        <v>0</v>
+      </c>
+      <c r="BK30">
+        <v>0</v>
+      </c>
+      <c r="BL30">
+        <v>0</v>
+      </c>
+      <c r="BM30">
+        <v>0</v>
+      </c>
+      <c r="BN30">
+        <v>0</v>
+      </c>
+      <c r="BO30">
+        <v>0</v>
+      </c>
+      <c r="BP30">
+        <v>0</v>
+      </c>
+      <c r="BQ30">
+        <v>0</v>
+      </c>
+      <c r="BR30">
+        <v>0</v>
+      </c>
+      <c r="BS30">
+        <v>0</v>
+      </c>
+      <c r="BT30">
+        <v>0</v>
+      </c>
+      <c r="BU30">
+        <v>0</v>
+      </c>
+      <c r="BV30">
+        <v>0</v>
+      </c>
+      <c r="BW30">
+        <v>0</v>
+      </c>
+      <c r="BX30">
+        <v>0</v>
+      </c>
+      <c r="BY30">
+        <v>1</v>
+      </c>
+      <c r="BZ30">
+        <v>0</v>
+      </c>
+      <c r="CA30">
+        <v>0</v>
+      </c>
+      <c r="CB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>236</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>0</v>
+      </c>
+      <c r="BG31">
+        <v>0</v>
+      </c>
+      <c r="BH31">
+        <v>0</v>
+      </c>
+      <c r="BI31">
+        <v>0</v>
+      </c>
+      <c r="BJ31">
+        <v>0</v>
+      </c>
+      <c r="BK31">
+        <v>0</v>
+      </c>
+      <c r="BL31">
+        <v>0</v>
+      </c>
+      <c r="BM31">
+        <v>0</v>
+      </c>
+      <c r="BN31">
+        <v>0</v>
+      </c>
+      <c r="BO31">
+        <v>0</v>
+      </c>
+      <c r="BP31">
+        <v>0</v>
+      </c>
+      <c r="BQ31">
+        <v>0</v>
+      </c>
+      <c r="BR31">
+        <v>0</v>
+      </c>
+      <c r="BS31">
+        <v>0</v>
+      </c>
+      <c r="BT31">
+        <v>0</v>
+      </c>
+      <c r="BU31">
+        <v>0</v>
+      </c>
+      <c r="BV31">
+        <v>0</v>
+      </c>
+      <c r="BW31">
+        <v>0</v>
+      </c>
+      <c r="BX31">
+        <v>0</v>
+      </c>
+      <c r="BY31">
+        <v>0</v>
+      </c>
+      <c r="BZ31">
+        <v>0</v>
+      </c>
+      <c r="CA31">
+        <v>0</v>
+      </c>
+      <c r="CB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>237</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>1</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BG32">
+        <v>0</v>
+      </c>
+      <c r="BH32">
+        <v>0</v>
+      </c>
+      <c r="BI32">
+        <v>0</v>
+      </c>
+      <c r="BJ32">
+        <v>0</v>
+      </c>
+      <c r="BK32">
+        <v>0</v>
+      </c>
+      <c r="BL32">
+        <v>0</v>
+      </c>
+      <c r="BM32">
+        <v>0</v>
+      </c>
+      <c r="BN32">
+        <v>0</v>
+      </c>
+      <c r="BO32">
+        <v>0</v>
+      </c>
+      <c r="BP32">
+        <v>0</v>
+      </c>
+      <c r="BQ32">
+        <v>0</v>
+      </c>
+      <c r="BR32">
+        <v>0</v>
+      </c>
+      <c r="BS32">
+        <v>0</v>
+      </c>
+      <c r="BT32">
+        <v>0</v>
+      </c>
+      <c r="BU32">
+        <v>0</v>
+      </c>
+      <c r="BV32">
+        <v>0</v>
+      </c>
+      <c r="BW32">
+        <v>0</v>
+      </c>
+      <c r="BX32">
+        <v>0</v>
+      </c>
+      <c r="BY32">
+        <v>0</v>
+      </c>
+      <c r="BZ32">
+        <v>0</v>
+      </c>
+      <c r="CA32">
+        <v>0</v>
+      </c>
+      <c r="CB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>238</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <v>0</v>
+      </c>
+      <c r="BG33">
+        <v>0</v>
+      </c>
+      <c r="BH33">
+        <v>0</v>
+      </c>
+      <c r="BI33">
+        <v>0</v>
+      </c>
+      <c r="BJ33">
+        <v>0</v>
+      </c>
+      <c r="BK33">
+        <v>0</v>
+      </c>
+      <c r="BL33">
+        <v>0</v>
+      </c>
+      <c r="BM33">
+        <v>0</v>
+      </c>
+      <c r="BN33">
+        <v>0</v>
+      </c>
+      <c r="BO33">
+        <v>0</v>
+      </c>
+      <c r="BP33">
+        <v>0</v>
+      </c>
+      <c r="BQ33">
+        <v>0</v>
+      </c>
+      <c r="BR33">
+        <v>0</v>
+      </c>
+      <c r="BS33">
+        <v>0</v>
+      </c>
+      <c r="BT33">
+        <v>0</v>
+      </c>
+      <c r="BU33">
+        <v>0</v>
+      </c>
+      <c r="BV33">
+        <v>0</v>
+      </c>
+      <c r="BW33">
+        <v>0</v>
+      </c>
+      <c r="BX33">
+        <v>0</v>
+      </c>
+      <c r="BY33">
+        <v>0</v>
+      </c>
+      <c r="BZ33">
+        <v>0</v>
+      </c>
+      <c r="CA33">
+        <v>0</v>
+      </c>
+      <c r="CB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>240</v>
+      </c>
+      <c r="C34">
+        <v>47</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>2</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>1</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>2</v>
+      </c>
+      <c r="AT34">
+        <v>1</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <v>1</v>
+      </c>
+      <c r="BG34">
+        <v>0</v>
+      </c>
+      <c r="BH34">
+        <v>0</v>
+      </c>
+      <c r="BI34">
+        <v>0</v>
+      </c>
+      <c r="BJ34">
+        <v>4</v>
+      </c>
+      <c r="BK34">
+        <v>9</v>
+      </c>
+      <c r="BL34">
+        <v>1</v>
+      </c>
+      <c r="BM34">
+        <v>0</v>
+      </c>
+      <c r="BN34">
+        <v>2</v>
+      </c>
+      <c r="BO34">
+        <v>8</v>
+      </c>
+      <c r="BP34">
+        <v>0</v>
+      </c>
+      <c r="BQ34">
+        <v>0</v>
+      </c>
+      <c r="BR34">
+        <v>0</v>
+      </c>
+      <c r="BS34">
+        <v>0</v>
+      </c>
+      <c r="BT34">
+        <v>0</v>
+      </c>
+      <c r="BU34">
+        <v>0</v>
+      </c>
+      <c r="BV34">
+        <v>0</v>
+      </c>
+      <c r="BW34">
+        <v>0</v>
+      </c>
+      <c r="BX34">
+        <v>0</v>
+      </c>
+      <c r="BY34">
+        <v>1</v>
+      </c>
+      <c r="BZ34">
+        <v>0</v>
+      </c>
+      <c r="CA34">
+        <v>0</v>
+      </c>
+      <c r="CB34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>242</v>
+      </c>
+      <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>3</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>2</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>1</v>
+      </c>
+      <c r="AQ35">
+        <v>1</v>
+      </c>
+      <c r="AR35">
+        <v>1</v>
+      </c>
+      <c r="AS35">
+        <v>2</v>
+      </c>
+      <c r="AT35">
+        <v>4</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
+        <v>0</v>
+      </c>
+      <c r="BF35">
+        <v>0</v>
+      </c>
+      <c r="BG35">
+        <v>0</v>
+      </c>
+      <c r="BH35">
+        <v>0</v>
+      </c>
+      <c r="BI35">
+        <v>1</v>
+      </c>
+      <c r="BJ35">
+        <v>0</v>
+      </c>
+      <c r="BK35">
+        <v>1</v>
+      </c>
+      <c r="BL35">
+        <v>0</v>
+      </c>
+      <c r="BM35">
+        <v>0</v>
+      </c>
+      <c r="BN35">
+        <v>2</v>
+      </c>
+      <c r="BO35">
+        <v>0</v>
+      </c>
+      <c r="BP35">
+        <v>0</v>
+      </c>
+      <c r="BQ35">
+        <v>0</v>
+      </c>
+      <c r="BR35">
+        <v>0</v>
+      </c>
+      <c r="BS35">
+        <v>1</v>
+      </c>
+      <c r="BT35">
+        <v>0</v>
+      </c>
+      <c r="BU35">
+        <v>0</v>
+      </c>
+      <c r="BV35">
+        <v>0</v>
+      </c>
+      <c r="BW35">
+        <v>0</v>
+      </c>
+      <c r="BX35">
+        <v>0</v>
+      </c>
+      <c r="BY35">
+        <v>0</v>
+      </c>
+      <c r="BZ35">
+        <v>0</v>
+      </c>
+      <c r="CA35">
+        <v>0</v>
+      </c>
+      <c r="CB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>248</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>1</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>1</v>
+      </c>
+      <c r="AS36">
+        <v>0</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
+        <v>1</v>
+      </c>
+      <c r="AW36">
+        <v>0</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BC36">
+        <v>0</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <v>0</v>
+      </c>
+      <c r="BF36">
+        <v>0</v>
+      </c>
+      <c r="BG36">
+        <v>0</v>
+      </c>
+      <c r="BH36">
+        <v>0</v>
+      </c>
+      <c r="BI36">
+        <v>0</v>
+      </c>
+      <c r="BJ36">
+        <v>0</v>
+      </c>
+      <c r="BK36">
+        <v>0</v>
+      </c>
+      <c r="BL36">
+        <v>0</v>
+      </c>
+      <c r="BM36">
+        <v>0</v>
+      </c>
+      <c r="BN36">
+        <v>0</v>
+      </c>
+      <c r="BO36">
+        <v>0</v>
+      </c>
+      <c r="BP36">
+        <v>0</v>
+      </c>
+      <c r="BQ36">
+        <v>0</v>
+      </c>
+      <c r="BR36">
+        <v>0</v>
+      </c>
+      <c r="BS36">
+        <v>0</v>
+      </c>
+      <c r="BT36">
+        <v>0</v>
+      </c>
+      <c r="BU36">
+        <v>0</v>
+      </c>
+      <c r="BV36">
+        <v>0</v>
+      </c>
+      <c r="BW36">
+        <v>0</v>
+      </c>
+      <c r="BX36">
+        <v>0</v>
+      </c>
+      <c r="BY36">
+        <v>0</v>
+      </c>
+      <c r="BZ36">
+        <v>0</v>
+      </c>
+      <c r="CA36">
+        <v>0</v>
+      </c>
+      <c r="CB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>250</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>1</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>0</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+      <c r="AS37">
+        <v>0</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <v>0</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+      <c r="BC37">
+        <v>0</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <v>0</v>
+      </c>
+      <c r="BF37">
+        <v>0</v>
+      </c>
+      <c r="BG37">
+        <v>0</v>
+      </c>
+      <c r="BH37">
+        <v>0</v>
+      </c>
+      <c r="BI37">
+        <v>0</v>
+      </c>
+      <c r="BJ37">
+        <v>0</v>
+      </c>
+      <c r="BK37">
+        <v>0</v>
+      </c>
+      <c r="BL37">
+        <v>0</v>
+      </c>
+      <c r="BM37">
+        <v>0</v>
+      </c>
+      <c r="BN37">
+        <v>0</v>
+      </c>
+      <c r="BO37">
+        <v>1</v>
+      </c>
+      <c r="BP37">
+        <v>0</v>
+      </c>
+      <c r="BQ37">
+        <v>0</v>
+      </c>
+      <c r="BR37">
+        <v>0</v>
+      </c>
+      <c r="BS37">
+        <v>0</v>
+      </c>
+      <c r="BT37">
+        <v>0</v>
+      </c>
+      <c r="BU37">
+        <v>0</v>
+      </c>
+      <c r="BV37">
+        <v>0</v>
+      </c>
+      <c r="BW37">
+        <v>1</v>
+      </c>
+      <c r="BX37">
+        <v>0</v>
+      </c>
+      <c r="BY37">
+        <v>0</v>
+      </c>
+      <c r="BZ37">
+        <v>0</v>
+      </c>
+      <c r="CA37">
+        <v>0</v>
+      </c>
+      <c r="CB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>255</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>1</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
+        <v>0</v>
+      </c>
+      <c r="BD38">
+        <v>1</v>
+      </c>
+      <c r="BE38">
+        <v>0</v>
+      </c>
+      <c r="BF38">
+        <v>0</v>
+      </c>
+      <c r="BG38">
+        <v>0</v>
+      </c>
+      <c r="BH38">
+        <v>0</v>
+      </c>
+      <c r="BI38">
+        <v>0</v>
+      </c>
+      <c r="BJ38">
+        <v>0</v>
+      </c>
+      <c r="BK38">
+        <v>0</v>
+      </c>
+      <c r="BL38">
+        <v>0</v>
+      </c>
+      <c r="BM38">
+        <v>0</v>
+      </c>
+      <c r="BN38">
+        <v>0</v>
+      </c>
+      <c r="BO38">
+        <v>0</v>
+      </c>
+      <c r="BP38">
+        <v>0</v>
+      </c>
+      <c r="BQ38">
+        <v>0</v>
+      </c>
+      <c r="BR38">
+        <v>0</v>
+      </c>
+      <c r="BS38">
+        <v>0</v>
+      </c>
+      <c r="BT38">
+        <v>1</v>
+      </c>
+      <c r="BU38">
+        <v>0</v>
+      </c>
+      <c r="BV38">
+        <v>6</v>
+      </c>
+      <c r="BW38">
+        <v>0</v>
+      </c>
+      <c r="BX38">
+        <v>0</v>
+      </c>
+      <c r="BY38">
+        <v>0</v>
+      </c>
+      <c r="BZ38">
+        <v>0</v>
+      </c>
+      <c r="CA38">
+        <v>0</v>
+      </c>
+      <c r="CB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>260</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AS39">
+        <v>0</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
+      <c r="AU39">
+        <v>1</v>
+      </c>
+      <c r="AV39">
+        <v>0</v>
+      </c>
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>0</v>
+      </c>
+      <c r="AZ39">
+        <v>1</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39">
+        <v>0</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+      <c r="BE39">
+        <v>0</v>
+      </c>
+      <c r="BF39">
+        <v>0</v>
+      </c>
+      <c r="BG39">
+        <v>0</v>
+      </c>
+      <c r="BH39">
+        <v>0</v>
+      </c>
+      <c r="BI39">
+        <v>0</v>
+      </c>
+      <c r="BJ39">
+        <v>0</v>
+      </c>
+      <c r="BK39">
+        <v>0</v>
+      </c>
+      <c r="BL39">
+        <v>0</v>
+      </c>
+      <c r="BM39">
+        <v>0</v>
+      </c>
+      <c r="BN39">
+        <v>0</v>
+      </c>
+      <c r="BO39">
+        <v>0</v>
+      </c>
+      <c r="BP39">
+        <v>0</v>
+      </c>
+      <c r="BQ39">
+        <v>1</v>
+      </c>
+      <c r="BR39">
+        <v>0</v>
+      </c>
+      <c r="BS39">
+        <v>0</v>
+      </c>
+      <c r="BT39">
+        <v>0</v>
+      </c>
+      <c r="BU39">
+        <v>0</v>
+      </c>
+      <c r="BV39">
+        <v>0</v>
+      </c>
+      <c r="BW39">
+        <v>0</v>
+      </c>
+      <c r="BX39">
+        <v>0</v>
+      </c>
+      <c r="BY39">
+        <v>0</v>
+      </c>
+      <c r="BZ39">
+        <v>0</v>
+      </c>
+      <c r="CA39">
+        <v>0</v>
+      </c>
+      <c r="CB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>301</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>0</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>0</v>
+      </c>
+      <c r="AS40">
+        <v>0</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>0</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>0</v>
+      </c>
+      <c r="BF40">
+        <v>0</v>
+      </c>
+      <c r="BG40">
+        <v>0</v>
+      </c>
+      <c r="BH40">
+        <v>0</v>
+      </c>
+      <c r="BI40">
+        <v>0</v>
+      </c>
+      <c r="BJ40">
+        <v>0</v>
+      </c>
+      <c r="BK40">
+        <v>0</v>
+      </c>
+      <c r="BL40">
+        <v>0</v>
+      </c>
+      <c r="BM40">
+        <v>0</v>
+      </c>
+      <c r="BN40">
+        <v>0</v>
+      </c>
+      <c r="BO40">
+        <v>0</v>
+      </c>
+      <c r="BP40">
+        <v>0</v>
+      </c>
+      <c r="BQ40">
+        <v>0</v>
+      </c>
+      <c r="BR40">
+        <v>0</v>
+      </c>
+      <c r="BS40">
+        <v>0</v>
+      </c>
+      <c r="BT40">
+        <v>0</v>
+      </c>
+      <c r="BU40">
+        <v>0</v>
+      </c>
+      <c r="BV40">
+        <v>0</v>
+      </c>
+      <c r="BW40">
+        <v>0</v>
+      </c>
+      <c r="BX40">
+        <v>0</v>
+      </c>
+      <c r="BY40">
+        <v>0</v>
+      </c>
+      <c r="BZ40">
+        <v>0</v>
+      </c>
+      <c r="CA40">
+        <v>0</v>
+      </c>
+      <c r="CB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>308</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>1</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>0</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
+      </c>
+      <c r="BE41">
+        <v>0</v>
+      </c>
+      <c r="BF41">
+        <v>0</v>
+      </c>
+      <c r="BG41">
+        <v>0</v>
+      </c>
+      <c r="BH41">
+        <v>0</v>
+      </c>
+      <c r="BI41">
+        <v>0</v>
+      </c>
+      <c r="BJ41">
+        <v>0</v>
+      </c>
+      <c r="BK41">
+        <v>0</v>
+      </c>
+      <c r="BL41">
+        <v>0</v>
+      </c>
+      <c r="BM41">
+        <v>0</v>
+      </c>
+      <c r="BN41">
+        <v>0</v>
+      </c>
+      <c r="BO41">
+        <v>0</v>
+      </c>
+      <c r="BP41">
+        <v>0</v>
+      </c>
+      <c r="BQ41">
+        <v>0</v>
+      </c>
+      <c r="BR41">
+        <v>0</v>
+      </c>
+      <c r="BS41">
+        <v>0</v>
+      </c>
+      <c r="BT41">
+        <v>1</v>
+      </c>
+      <c r="BU41">
+        <v>0</v>
+      </c>
+      <c r="BV41">
+        <v>0</v>
+      </c>
+      <c r="BW41">
+        <v>0</v>
+      </c>
+      <c r="BX41">
+        <v>0</v>
+      </c>
+      <c r="BY41">
+        <v>0</v>
+      </c>
+      <c r="BZ41">
+        <v>0</v>
+      </c>
+      <c r="CA41">
+        <v>0</v>
+      </c>
+      <c r="CB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>330</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>0</v>
+      </c>
+      <c r="AS42">
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <v>0</v>
+      </c>
+      <c r="AW42">
+        <v>0</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42">
+        <v>0</v>
+      </c>
+      <c r="BD42">
+        <v>0</v>
+      </c>
+      <c r="BE42">
+        <v>0</v>
+      </c>
+      <c r="BF42">
+        <v>0</v>
+      </c>
+      <c r="BG42">
+        <v>0</v>
+      </c>
+      <c r="BH42">
+        <v>0</v>
+      </c>
+      <c r="BI42">
+        <v>0</v>
+      </c>
+      <c r="BJ42">
+        <v>0</v>
+      </c>
+      <c r="BK42">
+        <v>0</v>
+      </c>
+      <c r="BL42">
+        <v>0</v>
+      </c>
+      <c r="BM42">
+        <v>0</v>
+      </c>
+      <c r="BN42">
+        <v>0</v>
+      </c>
+      <c r="BO42">
+        <v>0</v>
+      </c>
+      <c r="BP42">
+        <v>0</v>
+      </c>
+      <c r="BQ42">
+        <v>0</v>
+      </c>
+      <c r="BR42">
+        <v>0</v>
+      </c>
+      <c r="BS42">
+        <v>0</v>
+      </c>
+      <c r="BT42">
+        <v>0</v>
+      </c>
+      <c r="BU42">
+        <v>0</v>
+      </c>
+      <c r="BV42">
+        <v>0</v>
+      </c>
+      <c r="BW42">
+        <v>0</v>
+      </c>
+      <c r="BX42">
+        <v>1</v>
+      </c>
+      <c r="BY42">
+        <v>0</v>
+      </c>
+      <c r="BZ42">
+        <v>1</v>
+      </c>
+      <c r="CA42">
+        <v>0</v>
+      </c>
+      <c r="CB42">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Lovejoy data table_Frequency of capture.xlsx
+++ b/Lovejoy data table_Frequency of capture.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>Bird Species</t>
   </si>
@@ -62,15 +62,85 @@
   <si>
     <t>Chaetura spinicaudus</t>
   </si>
+  <si>
+    <t>Turdus albicollis</t>
+  </si>
+  <si>
+    <t>Coereba flaveola</t>
+  </si>
+  <si>
+    <t>Geothlypis aequinoctialis</t>
+  </si>
+  <si>
+    <t>Cyanocompsa cyanoides</t>
+  </si>
+  <si>
+    <t>Crypturellus cinereus</t>
+  </si>
+  <si>
+    <t>Leptodon cayanensis</t>
+  </si>
+  <si>
+    <t>Micrastur gilvicollis</t>
+  </si>
+  <si>
+    <t>Glaucis hirsuta</t>
+  </si>
+  <si>
+    <t>Trogon viridis</t>
+  </si>
+  <si>
+    <t>Ramphastos vitellinus</t>
+  </si>
+  <si>
+    <t>Notharchus macrorhynchos</t>
+  </si>
+  <si>
+    <t>Microcerculus marginatus</t>
+  </si>
+  <si>
+    <t>Synallaxis rutilans</t>
+  </si>
+  <si>
+    <t>Corythopis torquata</t>
+  </si>
+  <si>
+    <t>Thryothorus genibarbis</t>
+  </si>
+  <si>
+    <t>Turdus nudigenis</t>
+  </si>
+  <si>
+    <t>Cyanerpes caeruleus</t>
+  </si>
+  <si>
+    <t>Oryzoborus angolensis</t>
+  </si>
+  <si>
+    <t>Crypturellus soui</t>
+  </si>
+  <si>
+    <t>Harpagus bidentatus</t>
+  </si>
+  <si>
+    <t>Chaetura chapmani</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,8 +166,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,9 +475,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BK35" sqref="BK35"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5255,6 +5326,9 @@
       <c r="A21">
         <v>150</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C21">
         <v>129</v>
       </c>
@@ -5494,6 +5568,9 @@
       <c r="A22">
         <v>155</v>
       </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
       <c r="C22">
         <v>0</v>
       </c>
@@ -5733,6 +5810,9 @@
       <c r="A23">
         <v>156</v>
       </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
       <c r="C23">
         <v>6</v>
       </c>
@@ -5972,6 +6052,9 @@
       <c r="A24">
         <v>160</v>
       </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
       <c r="C24">
         <v>226</v>
       </c>
@@ -6211,6 +6294,9 @@
       <c r="A25">
         <v>201</v>
       </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
       <c r="C25">
         <v>1</v>
       </c>
@@ -6450,6 +6536,9 @@
       <c r="A26">
         <v>208</v>
       </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
       <c r="C26">
         <v>0</v>
       </c>
@@ -6689,6 +6778,9 @@
       <c r="A27">
         <v>209</v>
       </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
       <c r="C27">
         <v>26</v>
       </c>
@@ -6928,6 +7020,9 @@
       <c r="A28">
         <v>225</v>
       </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
       <c r="C28">
         <v>0</v>
       </c>
@@ -7167,6 +7262,9 @@
       <c r="A29">
         <v>231</v>
       </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
       <c r="C29">
         <v>30</v>
       </c>
@@ -7406,6 +7504,9 @@
       <c r="A30">
         <v>232</v>
       </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
       <c r="C30">
         <v>2</v>
       </c>
@@ -7645,6 +7746,9 @@
       <c r="A31">
         <v>236</v>
       </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
       <c r="C31">
         <v>0</v>
       </c>
@@ -7884,6 +7988,9 @@
       <c r="A32">
         <v>237</v>
       </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
       <c r="C32">
         <v>2</v>
       </c>
@@ -8123,6 +8230,9 @@
       <c r="A33">
         <v>238</v>
       </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
       <c r="C33">
         <v>0</v>
       </c>
@@ -8362,6 +8472,9 @@
       <c r="A34">
         <v>240</v>
       </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
       <c r="C34">
         <v>47</v>
       </c>
@@ -8601,6 +8714,9 @@
       <c r="A35">
         <v>242</v>
       </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
       <c r="C35">
         <v>33</v>
       </c>
@@ -8840,6 +8956,9 @@
       <c r="A36">
         <v>248</v>
       </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
       <c r="C36">
         <v>7</v>
       </c>
@@ -9079,6 +9198,9 @@
       <c r="A37">
         <v>250</v>
       </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
       <c r="C37">
         <v>4</v>
       </c>
@@ -9318,6 +9440,9 @@
       <c r="A38">
         <v>255</v>
       </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
       <c r="C38">
         <v>10</v>
       </c>
@@ -9557,6 +9682,9 @@
       <c r="A39">
         <v>260</v>
       </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
       <c r="C39">
         <v>6</v>
       </c>
@@ -9796,6 +9924,9 @@
       <c r="A40">
         <v>301</v>
       </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
       <c r="C40">
         <v>2</v>
       </c>
@@ -10035,6 +10166,9 @@
       <c r="A41">
         <v>308</v>
       </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
       <c r="C41">
         <v>3</v>
       </c>
@@ -10273,6 +10407,9 @@
     <row r="42" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>330</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
       </c>
       <c r="C42">
         <v>0</v>

--- a/Lovejoy data table_Frequency of capture.xlsx
+++ b/Lovejoy data table_Frequency of capture.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>Bird Species</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Chaetura chapmani</t>
+  </si>
+  <si>
+    <t>Coccyzus euleri</t>
   </si>
 </sst>
 </file>
@@ -473,11 +476,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CB42"/>
+  <dimension ref="A1:CB64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AS60" sqref="AS60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7021,7 +7024,7 @@
         <v>225</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -10644,6 +10647,2720 @@
       </c>
       <c r="CB42">
         <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>331</v>
+      </c>
+      <c r="C43">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>336</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>0</v>
+      </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>0</v>
+      </c>
+      <c r="AS44">
+        <v>0</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <v>0</v>
+      </c>
+      <c r="AV44">
+        <v>0</v>
+      </c>
+      <c r="AW44">
+        <v>0</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>0</v>
+      </c>
+      <c r="AZ44">
+        <v>0</v>
+      </c>
+      <c r="BA44">
+        <v>1</v>
+      </c>
+      <c r="BB44">
+        <v>0</v>
+      </c>
+      <c r="BC44">
+        <v>0</v>
+      </c>
+      <c r="BD44">
+        <v>0</v>
+      </c>
+      <c r="BE44">
+        <v>0</v>
+      </c>
+      <c r="BF44">
+        <v>0</v>
+      </c>
+      <c r="BG44">
+        <v>0</v>
+      </c>
+      <c r="BH44">
+        <v>0</v>
+      </c>
+      <c r="BI44">
+        <v>0</v>
+      </c>
+      <c r="BJ44">
+        <v>0</v>
+      </c>
+      <c r="BK44">
+        <v>0</v>
+      </c>
+      <c r="BL44">
+        <v>0</v>
+      </c>
+      <c r="BM44">
+        <v>0</v>
+      </c>
+      <c r="BN44">
+        <v>0</v>
+      </c>
+      <c r="BO44">
+        <v>0</v>
+      </c>
+      <c r="BP44">
+        <v>0</v>
+      </c>
+      <c r="BQ44">
+        <v>0</v>
+      </c>
+      <c r="BR44">
+        <v>0</v>
+      </c>
+      <c r="BS44">
+        <v>0</v>
+      </c>
+      <c r="BT44">
+        <v>0</v>
+      </c>
+      <c r="BU44">
+        <v>0</v>
+      </c>
+      <c r="BV44">
+        <v>0</v>
+      </c>
+      <c r="BW44">
+        <v>0</v>
+      </c>
+      <c r="BX44">
+        <v>0</v>
+      </c>
+      <c r="BY44">
+        <v>0</v>
+      </c>
+      <c r="BZ44">
+        <v>0</v>
+      </c>
+      <c r="CA44">
+        <v>0</v>
+      </c>
+      <c r="CB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>337</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>0</v>
+      </c>
+      <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>0</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <v>0</v>
+      </c>
+      <c r="AS45">
+        <v>0</v>
+      </c>
+      <c r="AT45">
+        <v>0</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AV45">
+        <v>0</v>
+      </c>
+      <c r="AW45">
+        <v>0</v>
+      </c>
+      <c r="AX45">
+        <v>0</v>
+      </c>
+      <c r="AY45">
+        <v>0</v>
+      </c>
+      <c r="AZ45">
+        <v>0</v>
+      </c>
+      <c r="BA45">
+        <v>0</v>
+      </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
+      <c r="BC45">
+        <v>0</v>
+      </c>
+      <c r="BD45">
+        <v>0</v>
+      </c>
+      <c r="BE45">
+        <v>0</v>
+      </c>
+      <c r="BF45">
+        <v>0</v>
+      </c>
+      <c r="BG45">
+        <v>0</v>
+      </c>
+      <c r="BH45">
+        <v>0</v>
+      </c>
+      <c r="BI45">
+        <v>0</v>
+      </c>
+      <c r="BJ45">
+        <v>0</v>
+      </c>
+      <c r="BK45">
+        <v>0</v>
+      </c>
+      <c r="BL45">
+        <v>0</v>
+      </c>
+      <c r="BM45">
+        <v>0</v>
+      </c>
+      <c r="BN45">
+        <v>0</v>
+      </c>
+      <c r="BO45">
+        <v>0</v>
+      </c>
+      <c r="BP45">
+        <v>0</v>
+      </c>
+      <c r="BQ45">
+        <v>0</v>
+      </c>
+      <c r="BR45">
+        <v>0</v>
+      </c>
+      <c r="BS45">
+        <v>0</v>
+      </c>
+      <c r="BT45">
+        <v>0</v>
+      </c>
+      <c r="BU45">
+        <v>0</v>
+      </c>
+      <c r="BV45">
+        <v>0</v>
+      </c>
+      <c r="BW45">
+        <v>0</v>
+      </c>
+      <c r="BX45">
+        <v>0</v>
+      </c>
+      <c r="BY45">
+        <v>0</v>
+      </c>
+      <c r="BZ45">
+        <v>0</v>
+      </c>
+      <c r="CA45">
+        <v>0</v>
+      </c>
+      <c r="CB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>343</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>0</v>
+      </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <v>0</v>
+      </c>
+      <c r="AS46">
+        <v>0</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>0</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BE46">
+        <v>0</v>
+      </c>
+      <c r="BF46">
+        <v>0</v>
+      </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
+      <c r="BH46">
+        <v>0</v>
+      </c>
+      <c r="BI46">
+        <v>0</v>
+      </c>
+      <c r="BJ46">
+        <v>0</v>
+      </c>
+      <c r="BK46">
+        <v>0</v>
+      </c>
+      <c r="BL46">
+        <v>0</v>
+      </c>
+      <c r="BM46">
+        <v>0</v>
+      </c>
+      <c r="BN46">
+        <v>0</v>
+      </c>
+      <c r="BO46">
+        <v>0</v>
+      </c>
+      <c r="BP46">
+        <v>0</v>
+      </c>
+      <c r="BQ46">
+        <v>0</v>
+      </c>
+      <c r="BR46">
+        <v>0</v>
+      </c>
+      <c r="BS46">
+        <v>0</v>
+      </c>
+      <c r="BT46">
+        <v>0</v>
+      </c>
+      <c r="BU46">
+        <v>0</v>
+      </c>
+      <c r="BV46">
+        <v>0</v>
+      </c>
+      <c r="BW46">
+        <v>0</v>
+      </c>
+      <c r="BX46">
+        <v>0</v>
+      </c>
+      <c r="BY46">
+        <v>0</v>
+      </c>
+      <c r="BZ46">
+        <v>0</v>
+      </c>
+      <c r="CA46">
+        <v>0</v>
+      </c>
+      <c r="CB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>344</v>
+      </c>
+      <c r="C47">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>350</v>
+      </c>
+      <c r="C48">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>351</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>0</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>0</v>
+      </c>
+      <c r="AS49">
+        <v>2</v>
+      </c>
+      <c r="AT49">
+        <v>0</v>
+      </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
+        <v>0</v>
+      </c>
+      <c r="AW49">
+        <v>0</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>3</v>
+      </c>
+      <c r="BD49">
+        <v>0</v>
+      </c>
+      <c r="BE49">
+        <v>0</v>
+      </c>
+      <c r="BF49">
+        <v>0</v>
+      </c>
+      <c r="BG49">
+        <v>0</v>
+      </c>
+      <c r="BH49">
+        <v>0</v>
+      </c>
+      <c r="BI49">
+        <v>0</v>
+      </c>
+      <c r="BJ49">
+        <v>0</v>
+      </c>
+      <c r="BK49">
+        <v>0</v>
+      </c>
+      <c r="BL49">
+        <v>0</v>
+      </c>
+      <c r="BM49">
+        <v>0</v>
+      </c>
+      <c r="BN49">
+        <v>0</v>
+      </c>
+      <c r="BO49">
+        <v>0</v>
+      </c>
+      <c r="BP49">
+        <v>0</v>
+      </c>
+      <c r="BQ49">
+        <v>0</v>
+      </c>
+      <c r="BR49">
+        <v>0</v>
+      </c>
+      <c r="BS49">
+        <v>0</v>
+      </c>
+      <c r="BT49">
+        <v>0</v>
+      </c>
+      <c r="BU49">
+        <v>0</v>
+      </c>
+      <c r="BV49">
+        <v>0</v>
+      </c>
+      <c r="BW49">
+        <v>0</v>
+      </c>
+      <c r="BX49">
+        <v>0</v>
+      </c>
+      <c r="BY49">
+        <v>0</v>
+      </c>
+      <c r="BZ49">
+        <v>0</v>
+      </c>
+      <c r="CA49">
+        <v>0</v>
+      </c>
+      <c r="CB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>355</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <v>0</v>
+      </c>
+      <c r="AS50">
+        <v>0</v>
+      </c>
+      <c r="AT50">
+        <v>0</v>
+      </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50">
+        <v>0</v>
+      </c>
+      <c r="AW50">
+        <v>0</v>
+      </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="AY50">
+        <v>0</v>
+      </c>
+      <c r="AZ50">
+        <v>0</v>
+      </c>
+      <c r="BA50">
+        <v>1</v>
+      </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BC50">
+        <v>0</v>
+      </c>
+      <c r="BD50">
+        <v>0</v>
+      </c>
+      <c r="BE50">
+        <v>0</v>
+      </c>
+      <c r="BF50">
+        <v>0</v>
+      </c>
+      <c r="BG50">
+        <v>0</v>
+      </c>
+      <c r="BH50">
+        <v>0</v>
+      </c>
+      <c r="BI50">
+        <v>0</v>
+      </c>
+      <c r="BJ50">
+        <v>0</v>
+      </c>
+      <c r="BK50">
+        <v>0</v>
+      </c>
+      <c r="BL50">
+        <v>0</v>
+      </c>
+      <c r="BM50">
+        <v>0</v>
+      </c>
+      <c r="BN50">
+        <v>0</v>
+      </c>
+      <c r="BO50">
+        <v>0</v>
+      </c>
+      <c r="BP50">
+        <v>0</v>
+      </c>
+      <c r="BQ50">
+        <v>0</v>
+      </c>
+      <c r="BR50">
+        <v>0</v>
+      </c>
+      <c r="BS50">
+        <v>0</v>
+      </c>
+      <c r="BT50">
+        <v>0</v>
+      </c>
+      <c r="BU50">
+        <v>0</v>
+      </c>
+      <c r="BV50">
+        <v>0</v>
+      </c>
+      <c r="BW50">
+        <v>0</v>
+      </c>
+      <c r="BX50">
+        <v>0</v>
+      </c>
+      <c r="BY50">
+        <v>0</v>
+      </c>
+      <c r="BZ50">
+        <v>0</v>
+      </c>
+      <c r="CA50">
+        <v>0</v>
+      </c>
+      <c r="CB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>356</v>
+      </c>
+      <c r="C51">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>359</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52">
+        <v>0</v>
+      </c>
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AU52">
+        <v>0</v>
+      </c>
+      <c r="AV52">
+        <v>0</v>
+      </c>
+      <c r="AW52">
+        <v>0</v>
+      </c>
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="AY52">
+        <v>0</v>
+      </c>
+      <c r="AZ52">
+        <v>0</v>
+      </c>
+      <c r="BA52">
+        <v>0</v>
+      </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
+      <c r="BC52">
+        <v>0</v>
+      </c>
+      <c r="BD52">
+        <v>0</v>
+      </c>
+      <c r="BE52">
+        <v>0</v>
+      </c>
+      <c r="BF52">
+        <v>0</v>
+      </c>
+      <c r="BG52">
+        <v>0</v>
+      </c>
+      <c r="BH52">
+        <v>0</v>
+      </c>
+      <c r="BI52">
+        <v>0</v>
+      </c>
+      <c r="BJ52">
+        <v>0</v>
+      </c>
+      <c r="BK52">
+        <v>0</v>
+      </c>
+      <c r="BL52">
+        <v>0</v>
+      </c>
+      <c r="BM52">
+        <v>0</v>
+      </c>
+      <c r="BN52">
+        <v>0</v>
+      </c>
+      <c r="BO52">
+        <v>0</v>
+      </c>
+      <c r="BP52">
+        <v>0</v>
+      </c>
+      <c r="BQ52">
+        <v>0</v>
+      </c>
+      <c r="BR52">
+        <v>0</v>
+      </c>
+      <c r="BS52">
+        <v>0</v>
+      </c>
+      <c r="BT52">
+        <v>0</v>
+      </c>
+      <c r="BU52">
+        <v>0</v>
+      </c>
+      <c r="BV52">
+        <v>0</v>
+      </c>
+      <c r="BW52">
+        <v>0</v>
+      </c>
+      <c r="BX52">
+        <v>0</v>
+      </c>
+      <c r="BY52">
+        <v>0</v>
+      </c>
+      <c r="BZ52">
+        <v>0</v>
+      </c>
+      <c r="CA52">
+        <v>0</v>
+      </c>
+      <c r="CB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>425</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>0</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>0</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
+      <c r="AS53">
+        <v>0</v>
+      </c>
+      <c r="AT53">
+        <v>0</v>
+      </c>
+      <c r="AU53">
+        <v>0</v>
+      </c>
+      <c r="AV53">
+        <v>0</v>
+      </c>
+      <c r="AW53">
+        <v>0</v>
+      </c>
+      <c r="AX53">
+        <v>0</v>
+      </c>
+      <c r="AY53">
+        <v>0</v>
+      </c>
+      <c r="AZ53">
+        <v>0</v>
+      </c>
+      <c r="BA53">
+        <v>0</v>
+      </c>
+      <c r="BB53">
+        <v>0</v>
+      </c>
+      <c r="BC53">
+        <v>0</v>
+      </c>
+      <c r="BD53">
+        <v>0</v>
+      </c>
+      <c r="BE53">
+        <v>0</v>
+      </c>
+      <c r="BF53">
+        <v>0</v>
+      </c>
+      <c r="BG53">
+        <v>0</v>
+      </c>
+      <c r="BH53">
+        <v>0</v>
+      </c>
+      <c r="BI53">
+        <v>0</v>
+      </c>
+      <c r="BJ53">
+        <v>0</v>
+      </c>
+      <c r="BK53">
+        <v>0</v>
+      </c>
+      <c r="BL53">
+        <v>0</v>
+      </c>
+      <c r="BM53">
+        <v>0</v>
+      </c>
+      <c r="BN53">
+        <v>0</v>
+      </c>
+      <c r="BO53">
+        <v>0</v>
+      </c>
+      <c r="BP53">
+        <v>0</v>
+      </c>
+      <c r="BQ53">
+        <v>0</v>
+      </c>
+      <c r="BR53">
+        <v>1</v>
+      </c>
+      <c r="BS53">
+        <v>0</v>
+      </c>
+      <c r="BT53">
+        <v>1</v>
+      </c>
+      <c r="BU53">
+        <v>0</v>
+      </c>
+      <c r="BV53">
+        <v>0</v>
+      </c>
+      <c r="BW53">
+        <v>0</v>
+      </c>
+      <c r="BX53">
+        <v>0</v>
+      </c>
+      <c r="BY53">
+        <v>0</v>
+      </c>
+      <c r="BZ53">
+        <v>3</v>
+      </c>
+      <c r="CA53">
+        <v>1</v>
+      </c>
+      <c r="CB53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>429</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>0</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <v>0</v>
+      </c>
+      <c r="AS54">
+        <v>0</v>
+      </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
+      <c r="AU54">
+        <v>0</v>
+      </c>
+      <c r="AV54">
+        <v>0</v>
+      </c>
+      <c r="AW54">
+        <v>0</v>
+      </c>
+      <c r="AX54">
+        <v>0</v>
+      </c>
+      <c r="AY54">
+        <v>0</v>
+      </c>
+      <c r="AZ54">
+        <v>0</v>
+      </c>
+      <c r="BA54">
+        <v>0</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>0</v>
+      </c>
+      <c r="BD54">
+        <v>0</v>
+      </c>
+      <c r="BE54">
+        <v>0</v>
+      </c>
+      <c r="BF54">
+        <v>0</v>
+      </c>
+      <c r="BG54">
+        <v>0</v>
+      </c>
+      <c r="BH54">
+        <v>0</v>
+      </c>
+      <c r="BI54">
+        <v>0</v>
+      </c>
+      <c r="BJ54">
+        <v>0</v>
+      </c>
+      <c r="BK54">
+        <v>0</v>
+      </c>
+      <c r="BL54">
+        <v>0</v>
+      </c>
+      <c r="BM54">
+        <v>0</v>
+      </c>
+      <c r="BN54">
+        <v>0</v>
+      </c>
+      <c r="BO54">
+        <v>0</v>
+      </c>
+      <c r="BP54">
+        <v>0</v>
+      </c>
+      <c r="BQ54">
+        <v>0</v>
+      </c>
+      <c r="BR54">
+        <v>0</v>
+      </c>
+      <c r="BS54">
+        <v>0</v>
+      </c>
+      <c r="BT54">
+        <v>0</v>
+      </c>
+      <c r="BU54">
+        <v>0</v>
+      </c>
+      <c r="BV54">
+        <v>0</v>
+      </c>
+      <c r="BW54">
+        <v>0</v>
+      </c>
+      <c r="BX54">
+        <v>0</v>
+      </c>
+      <c r="BY54">
+        <v>0</v>
+      </c>
+      <c r="BZ54">
+        <v>0</v>
+      </c>
+      <c r="CA54">
+        <v>0</v>
+      </c>
+      <c r="CB54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>431</v>
+      </c>
+      <c r="C55">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>432</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
+      <c r="AR56">
+        <v>0</v>
+      </c>
+      <c r="AS56">
+        <v>0</v>
+      </c>
+      <c r="AT56">
+        <v>0</v>
+      </c>
+      <c r="AU56">
+        <v>0</v>
+      </c>
+      <c r="AV56">
+        <v>0</v>
+      </c>
+      <c r="AW56">
+        <v>0</v>
+      </c>
+      <c r="AX56">
+        <v>0</v>
+      </c>
+      <c r="AY56">
+        <v>0</v>
+      </c>
+      <c r="AZ56">
+        <v>0</v>
+      </c>
+      <c r="BA56">
+        <v>0</v>
+      </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+      <c r="BC56">
+        <v>0</v>
+      </c>
+      <c r="BD56">
+        <v>0</v>
+      </c>
+      <c r="BE56">
+        <v>0</v>
+      </c>
+      <c r="BF56">
+        <v>0</v>
+      </c>
+      <c r="BG56">
+        <v>0</v>
+      </c>
+      <c r="BH56">
+        <v>0</v>
+      </c>
+      <c r="BI56">
+        <v>0</v>
+      </c>
+      <c r="BJ56">
+        <v>0</v>
+      </c>
+      <c r="BK56">
+        <v>0</v>
+      </c>
+      <c r="BL56">
+        <v>0</v>
+      </c>
+      <c r="BM56">
+        <v>0</v>
+      </c>
+      <c r="BN56">
+        <v>0</v>
+      </c>
+      <c r="BO56">
+        <v>0</v>
+      </c>
+      <c r="BP56">
+        <v>0</v>
+      </c>
+      <c r="BQ56">
+        <v>0</v>
+      </c>
+      <c r="BR56">
+        <v>0</v>
+      </c>
+      <c r="BS56">
+        <v>0</v>
+      </c>
+      <c r="BT56">
+        <v>0</v>
+      </c>
+      <c r="BU56">
+        <v>0</v>
+      </c>
+      <c r="BV56">
+        <v>0</v>
+      </c>
+      <c r="BW56">
+        <v>0</v>
+      </c>
+      <c r="BX56">
+        <v>0</v>
+      </c>
+      <c r="BY56">
+        <v>0</v>
+      </c>
+      <c r="BZ56">
+        <v>0</v>
+      </c>
+      <c r="CA56">
+        <v>1</v>
+      </c>
+      <c r="CB56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>433</v>
+      </c>
+      <c r="C57">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>437</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>0</v>
+      </c>
+      <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <v>0</v>
+      </c>
+      <c r="AQ58">
+        <v>0</v>
+      </c>
+      <c r="AR58">
+        <v>0</v>
+      </c>
+      <c r="AS58">
+        <v>2</v>
+      </c>
+      <c r="AT58">
+        <v>0</v>
+      </c>
+      <c r="AU58">
+        <v>0</v>
+      </c>
+      <c r="AV58">
+        <v>0</v>
+      </c>
+      <c r="AW58">
+        <v>0</v>
+      </c>
+      <c r="AX58">
+        <v>0</v>
+      </c>
+      <c r="AY58">
+        <v>0</v>
+      </c>
+      <c r="AZ58">
+        <v>0</v>
+      </c>
+      <c r="BA58">
+        <v>0</v>
+      </c>
+      <c r="BB58">
+        <v>0</v>
+      </c>
+      <c r="BC58">
+        <v>0</v>
+      </c>
+      <c r="BD58">
+        <v>0</v>
+      </c>
+      <c r="BE58">
+        <v>0</v>
+      </c>
+      <c r="BF58">
+        <v>0</v>
+      </c>
+      <c r="BG58">
+        <v>0</v>
+      </c>
+      <c r="BH58">
+        <v>0</v>
+      </c>
+      <c r="BI58">
+        <v>0</v>
+      </c>
+      <c r="BJ58">
+        <v>0</v>
+      </c>
+      <c r="BK58">
+        <v>0</v>
+      </c>
+      <c r="BL58">
+        <v>0</v>
+      </c>
+      <c r="BM58">
+        <v>0</v>
+      </c>
+      <c r="BN58">
+        <v>0</v>
+      </c>
+      <c r="BO58">
+        <v>0</v>
+      </c>
+      <c r="BP58">
+        <v>0</v>
+      </c>
+      <c r="BQ58">
+        <v>0</v>
+      </c>
+      <c r="BR58">
+        <v>0</v>
+      </c>
+      <c r="BS58">
+        <v>0</v>
+      </c>
+      <c r="BT58">
+        <v>0</v>
+      </c>
+      <c r="BU58">
+        <v>0</v>
+      </c>
+      <c r="BV58">
+        <v>0</v>
+      </c>
+      <c r="BW58">
+        <v>0</v>
+      </c>
+      <c r="BX58">
+        <v>0</v>
+      </c>
+      <c r="BY58">
+        <v>0</v>
+      </c>
+      <c r="BZ58">
+        <v>0</v>
+      </c>
+      <c r="CA58">
+        <v>0</v>
+      </c>
+      <c r="CB58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>438</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>0</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <v>0</v>
+      </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
+      <c r="AR59">
+        <v>0</v>
+      </c>
+      <c r="AS59">
+        <v>0</v>
+      </c>
+      <c r="AT59">
+        <v>0</v>
+      </c>
+      <c r="AU59">
+        <v>0</v>
+      </c>
+      <c r="AV59">
+        <v>0</v>
+      </c>
+      <c r="AW59">
+        <v>0</v>
+      </c>
+      <c r="AX59">
+        <v>0</v>
+      </c>
+      <c r="AY59">
+        <v>0</v>
+      </c>
+      <c r="AZ59">
+        <v>0</v>
+      </c>
+      <c r="BA59">
+        <v>0</v>
+      </c>
+      <c r="BB59">
+        <v>0</v>
+      </c>
+      <c r="BC59">
+        <v>0</v>
+      </c>
+      <c r="BD59">
+        <v>0</v>
+      </c>
+      <c r="BE59">
+        <v>0</v>
+      </c>
+      <c r="BF59">
+        <v>0</v>
+      </c>
+      <c r="BG59">
+        <v>0</v>
+      </c>
+      <c r="BH59">
+        <v>0</v>
+      </c>
+      <c r="BI59">
+        <v>0</v>
+      </c>
+      <c r="BJ59">
+        <v>0</v>
+      </c>
+      <c r="BK59">
+        <v>0</v>
+      </c>
+      <c r="BL59">
+        <v>0</v>
+      </c>
+      <c r="BM59">
+        <v>0</v>
+      </c>
+      <c r="BN59">
+        <v>0</v>
+      </c>
+      <c r="BO59">
+        <v>0</v>
+      </c>
+      <c r="BP59">
+        <v>0</v>
+      </c>
+      <c r="BQ59">
+        <v>0</v>
+      </c>
+      <c r="BR59">
+        <v>0</v>
+      </c>
+      <c r="BS59">
+        <v>0</v>
+      </c>
+      <c r="BT59">
+        <v>0</v>
+      </c>
+      <c r="BU59">
+        <v>0</v>
+      </c>
+      <c r="BV59">
+        <v>0</v>
+      </c>
+      <c r="BW59">
+        <v>0</v>
+      </c>
+      <c r="BX59">
+        <v>0</v>
+      </c>
+      <c r="BY59">
+        <v>0</v>
+      </c>
+      <c r="BZ59">
+        <v>0</v>
+      </c>
+      <c r="CA59">
+        <v>0</v>
+      </c>
+      <c r="CB59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>439</v>
+      </c>
+      <c r="C60">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="62" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>441</v>
+      </c>
+      <c r="C62">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>444</v>
+      </c>
+      <c r="C63">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>448</v>
+      </c>
+      <c r="C64">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Lovejoy data table_Frequency of capture.xlsx
+++ b/Lovejoy data table_Frequency of capture.xlsx
@@ -479,8 +479,8 @@
   <dimension ref="A1:CB64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AS60" sqref="AS60"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lovejoy data table_Frequency of capture.xlsx
+++ b/Lovejoy data table_Frequency of capture.xlsx
@@ -480,7 +480,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomLeft" activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11875,6 +11875,39 @@
       <c r="C51">
         <v>28</v>
       </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -12600,6 +12633,237 @@
       <c r="C55">
         <v>22</v>
       </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>1</v>
+      </c>
+      <c r="Z55">
+        <v>1</v>
+      </c>
+      <c r="AA55">
+        <v>1</v>
+      </c>
+      <c r="AB55">
+        <v>1</v>
+      </c>
+      <c r="AC55">
+        <v>2</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>1</v>
+      </c>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>1</v>
+      </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
+      <c r="AP55">
+        <v>0</v>
+      </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
+      <c r="AR55">
+        <v>0</v>
+      </c>
+      <c r="AS55">
+        <v>0</v>
+      </c>
+      <c r="AT55">
+        <v>0</v>
+      </c>
+      <c r="AU55">
+        <v>0</v>
+      </c>
+      <c r="AV55">
+        <v>0</v>
+      </c>
+      <c r="AW55">
+        <v>0</v>
+      </c>
+      <c r="AX55">
+        <v>1</v>
+      </c>
+      <c r="AY55">
+        <v>0</v>
+      </c>
+      <c r="AZ55">
+        <v>0</v>
+      </c>
+      <c r="BA55">
+        <v>0</v>
+      </c>
+      <c r="BB55">
+        <v>0</v>
+      </c>
+      <c r="BC55">
+        <v>0</v>
+      </c>
+      <c r="BD55">
+        <v>0</v>
+      </c>
+      <c r="BE55">
+        <v>0</v>
+      </c>
+      <c r="BF55">
+        <v>0</v>
+      </c>
+      <c r="BG55">
+        <v>0</v>
+      </c>
+      <c r="BH55">
+        <v>0</v>
+      </c>
+      <c r="BI55">
+        <v>1</v>
+      </c>
+      <c r="BJ55">
+        <v>0</v>
+      </c>
+      <c r="BK55">
+        <v>0</v>
+      </c>
+      <c r="BL55">
+        <v>0</v>
+      </c>
+      <c r="BM55">
+        <v>0</v>
+      </c>
+      <c r="BN55">
+        <v>0</v>
+      </c>
+      <c r="BO55">
+        <v>1</v>
+      </c>
+      <c r="BP55">
+        <v>1</v>
+      </c>
+      <c r="BQ55">
+        <v>1</v>
+      </c>
+      <c r="BR55">
+        <v>0</v>
+      </c>
+      <c r="BS55">
+        <v>0</v>
+      </c>
+      <c r="BT55">
+        <v>0</v>
+      </c>
+      <c r="BU55">
+        <v>1</v>
+      </c>
+      <c r="BV55">
+        <v>0</v>
+      </c>
+      <c r="BW55">
+        <v>0</v>
+      </c>
+      <c r="BX55">
+        <v>0</v>
+      </c>
+      <c r="BY55">
+        <v>0</v>
+      </c>
+      <c r="BZ55">
+        <v>0</v>
+      </c>
+      <c r="CA55">
+        <v>0</v>
+      </c>
+      <c r="CB55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -13333,6 +13597,234 @@
       <c r="C60">
         <v>24</v>
       </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>1</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>2</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
+      </c>
+      <c r="AF60">
+        <v>0</v>
+      </c>
+      <c r="AG60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>1</v>
+      </c>
+      <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60">
+        <v>0</v>
+      </c>
+      <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>0</v>
+      </c>
+      <c r="AO60">
+        <v>1</v>
+      </c>
+      <c r="AP60">
+        <v>0</v>
+      </c>
+      <c r="AQ60">
+        <v>0</v>
+      </c>
+      <c r="AR60">
+        <v>0</v>
+      </c>
+      <c r="AS60">
+        <v>1</v>
+      </c>
+      <c r="AT60">
+        <v>1</v>
+      </c>
+      <c r="AU60">
+        <v>2</v>
+      </c>
+      <c r="AV60">
+        <v>0</v>
+      </c>
+      <c r="AW60">
+        <v>1</v>
+      </c>
+      <c r="AX60">
+        <v>0</v>
+      </c>
+      <c r="AY60">
+        <v>0</v>
+      </c>
+      <c r="AZ60">
+        <v>0</v>
+      </c>
+      <c r="BA60">
+        <v>2</v>
+      </c>
+      <c r="BB60">
+        <v>3</v>
+      </c>
+      <c r="BC60">
+        <v>1</v>
+      </c>
+      <c r="BD60">
+        <v>2</v>
+      </c>
+      <c r="BE60">
+        <v>1</v>
+      </c>
+      <c r="BF60">
+        <v>0</v>
+      </c>
+      <c r="BG60">
+        <v>0</v>
+      </c>
+      <c r="BH60">
+        <v>0</v>
+      </c>
+      <c r="BI60">
+        <v>0</v>
+      </c>
+      <c r="BJ60">
+        <v>0</v>
+      </c>
+      <c r="BK60">
+        <v>0</v>
+      </c>
+      <c r="BL60">
+        <v>0</v>
+      </c>
+      <c r="BM60">
+        <v>0</v>
+      </c>
+      <c r="BN60">
+        <v>0</v>
+      </c>
+      <c r="BO60">
+        <v>0</v>
+      </c>
+      <c r="BP60">
+        <v>0</v>
+      </c>
+      <c r="BQ60">
+        <v>0</v>
+      </c>
+      <c r="BR60">
+        <v>0</v>
+      </c>
+      <c r="BS60">
+        <v>0</v>
+      </c>
+      <c r="BT60">
+        <v>0</v>
+      </c>
+      <c r="BU60">
+        <v>0</v>
+      </c>
+      <c r="BV60">
+        <v>0</v>
+      </c>
+      <c r="BW60">
+        <v>0</v>
+      </c>
+      <c r="BX60">
+        <v>0</v>
+      </c>
+      <c r="BY60">
+        <v>0</v>
+      </c>
+      <c r="BZ60">
+        <v>0</v>
+      </c>
+      <c r="CA60">
+        <v>0</v>
+      </c>
+      <c r="CB60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -13353,6 +13845,237 @@
       </c>
       <c r="C63">
         <v>14</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>2</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
+      <c r="AF63">
+        <v>0</v>
+      </c>
+      <c r="AG63">
+        <v>0</v>
+      </c>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>1</v>
+      </c>
+      <c r="AL63">
+        <v>0</v>
+      </c>
+      <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>0</v>
+      </c>
+      <c r="AO63">
+        <v>0</v>
+      </c>
+      <c r="AP63">
+        <v>0</v>
+      </c>
+      <c r="AQ63">
+        <v>0</v>
+      </c>
+      <c r="AR63">
+        <v>0</v>
+      </c>
+      <c r="AS63">
+        <v>0</v>
+      </c>
+      <c r="AT63">
+        <v>0</v>
+      </c>
+      <c r="AU63">
+        <v>0</v>
+      </c>
+      <c r="AV63">
+        <v>0</v>
+      </c>
+      <c r="AW63">
+        <v>0</v>
+      </c>
+      <c r="AX63">
+        <v>0</v>
+      </c>
+      <c r="AY63">
+        <v>0</v>
+      </c>
+      <c r="AZ63">
+        <v>0</v>
+      </c>
+      <c r="BA63">
+        <v>0</v>
+      </c>
+      <c r="BB63">
+        <v>0</v>
+      </c>
+      <c r="BC63">
+        <v>0</v>
+      </c>
+      <c r="BD63">
+        <v>0</v>
+      </c>
+      <c r="BE63">
+        <v>0</v>
+      </c>
+      <c r="BF63">
+        <v>0</v>
+      </c>
+      <c r="BG63">
+        <v>0</v>
+      </c>
+      <c r="BH63">
+        <v>0</v>
+      </c>
+      <c r="BI63">
+        <v>0</v>
+      </c>
+      <c r="BJ63">
+        <v>0</v>
+      </c>
+      <c r="BK63">
+        <v>0</v>
+      </c>
+      <c r="BL63">
+        <v>0</v>
+      </c>
+      <c r="BM63">
+        <v>0</v>
+      </c>
+      <c r="BN63">
+        <v>0</v>
+      </c>
+      <c r="BO63">
+        <v>0</v>
+      </c>
+      <c r="BP63">
+        <v>0</v>
+      </c>
+      <c r="BQ63">
+        <v>0</v>
+      </c>
+      <c r="BR63">
+        <v>0</v>
+      </c>
+      <c r="BS63">
+        <v>0</v>
+      </c>
+      <c r="BT63">
+        <v>0</v>
+      </c>
+      <c r="BU63">
+        <v>0</v>
+      </c>
+      <c r="BV63">
+        <v>0</v>
+      </c>
+      <c r="BW63">
+        <v>0</v>
+      </c>
+      <c r="BX63">
+        <v>0</v>
+      </c>
+      <c r="BY63">
+        <v>0</v>
+      </c>
+      <c r="BZ63">
+        <v>0</v>
+      </c>
+      <c r="CA63">
+        <v>0</v>
+      </c>
+      <c r="CB63">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:80" x14ac:dyDescent="0.25">

--- a/Lovejoy data table_Frequency of capture.xlsx
+++ b/Lovejoy data table_Frequency of capture.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -480,7 +478,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L49" sqref="L49"/>
+      <selection pane="bottomLeft" activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10656,6 +10654,237 @@
       <c r="C43">
         <v>217</v>
       </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43">
+        <v>5</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>5</v>
+      </c>
+      <c r="M43">
+        <v>3</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43">
+        <v>3</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>6</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>3</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>3</v>
+      </c>
+      <c r="X43">
+        <v>2</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>1</v>
+      </c>
+      <c r="AA43">
+        <v>3</v>
+      </c>
+      <c r="AB43">
+        <v>2</v>
+      </c>
+      <c r="AC43">
+        <v>2</v>
+      </c>
+      <c r="AD43">
+        <v>5</v>
+      </c>
+      <c r="AE43">
+        <v>5</v>
+      </c>
+      <c r="AF43">
+        <v>3</v>
+      </c>
+      <c r="AG43">
+        <v>2</v>
+      </c>
+      <c r="AH43">
+        <v>4</v>
+      </c>
+      <c r="AI43">
+        <v>4</v>
+      </c>
+      <c r="AJ43">
+        <v>3</v>
+      </c>
+      <c r="AK43">
+        <v>2</v>
+      </c>
+      <c r="AL43">
+        <v>2</v>
+      </c>
+      <c r="AM43">
+        <v>2</v>
+      </c>
+      <c r="AN43">
+        <v>4</v>
+      </c>
+      <c r="AO43">
+        <v>2</v>
+      </c>
+      <c r="AP43">
+        <v>0</v>
+      </c>
+      <c r="AQ43">
+        <v>2</v>
+      </c>
+      <c r="AR43">
+        <v>5</v>
+      </c>
+      <c r="AS43">
+        <v>2</v>
+      </c>
+      <c r="AT43">
+        <v>3</v>
+      </c>
+      <c r="AU43">
+        <v>3</v>
+      </c>
+      <c r="AV43">
+        <v>2</v>
+      </c>
+      <c r="AW43">
+        <v>3</v>
+      </c>
+      <c r="AX43">
+        <v>2</v>
+      </c>
+      <c r="AY43">
+        <v>4</v>
+      </c>
+      <c r="AZ43">
+        <v>3</v>
+      </c>
+      <c r="BA43">
+        <v>4</v>
+      </c>
+      <c r="BB43">
+        <v>5</v>
+      </c>
+      <c r="BC43">
+        <v>4</v>
+      </c>
+      <c r="BD43">
+        <v>5</v>
+      </c>
+      <c r="BE43">
+        <v>4</v>
+      </c>
+      <c r="BF43">
+        <v>2</v>
+      </c>
+      <c r="BG43">
+        <v>0</v>
+      </c>
+      <c r="BH43">
+        <v>1</v>
+      </c>
+      <c r="BI43">
+        <v>0</v>
+      </c>
+      <c r="BJ43">
+        <v>2</v>
+      </c>
+      <c r="BK43">
+        <v>1</v>
+      </c>
+      <c r="BL43">
+        <v>0</v>
+      </c>
+      <c r="BM43">
+        <v>2</v>
+      </c>
+      <c r="BN43">
+        <v>3</v>
+      </c>
+      <c r="BO43">
+        <v>0</v>
+      </c>
+      <c r="BP43">
+        <v>3</v>
+      </c>
+      <c r="BQ43">
+        <v>2</v>
+      </c>
+      <c r="BR43">
+        <v>1</v>
+      </c>
+      <c r="BS43">
+        <v>2</v>
+      </c>
+      <c r="BT43">
+        <v>5</v>
+      </c>
+      <c r="BU43">
+        <v>3</v>
+      </c>
+      <c r="BV43">
+        <v>4</v>
+      </c>
+      <c r="BW43">
+        <v>3</v>
+      </c>
+      <c r="BX43">
+        <v>0</v>
+      </c>
+      <c r="BY43">
+        <v>5</v>
+      </c>
+      <c r="BZ43">
+        <v>1</v>
+      </c>
+      <c r="CA43">
+        <v>6</v>
+      </c>
+      <c r="CB43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -11381,6 +11610,237 @@
       <c r="C47">
         <v>41</v>
       </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>3</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>2</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>2</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
+      </c>
+      <c r="AF47">
+        <v>2</v>
+      </c>
+      <c r="AG47">
+        <v>1</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>2</v>
+      </c>
+      <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
+        <v>1</v>
+      </c>
+      <c r="AP47">
+        <v>0</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>0</v>
+      </c>
+      <c r="AS47">
+        <v>0</v>
+      </c>
+      <c r="AT47">
+        <v>0</v>
+      </c>
+      <c r="AU47">
+        <v>4</v>
+      </c>
+      <c r="AV47">
+        <v>2</v>
+      </c>
+      <c r="AW47">
+        <v>0</v>
+      </c>
+      <c r="AX47">
+        <v>2</v>
+      </c>
+      <c r="AY47">
+        <v>0</v>
+      </c>
+      <c r="AZ47">
+        <v>1</v>
+      </c>
+      <c r="BA47">
+        <v>0</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
+        <v>1</v>
+      </c>
+      <c r="BD47">
+        <v>0</v>
+      </c>
+      <c r="BE47">
+        <v>0</v>
+      </c>
+      <c r="BF47">
+        <v>0</v>
+      </c>
+      <c r="BG47">
+        <v>0</v>
+      </c>
+      <c r="BH47">
+        <v>0</v>
+      </c>
+      <c r="BI47">
+        <v>0</v>
+      </c>
+      <c r="BJ47">
+        <v>0</v>
+      </c>
+      <c r="BK47">
+        <v>0</v>
+      </c>
+      <c r="BL47">
+        <v>0</v>
+      </c>
+      <c r="BM47">
+        <v>0</v>
+      </c>
+      <c r="BN47">
+        <v>0</v>
+      </c>
+      <c r="BO47">
+        <v>1</v>
+      </c>
+      <c r="BP47">
+        <v>0</v>
+      </c>
+      <c r="BQ47">
+        <v>0</v>
+      </c>
+      <c r="BR47">
+        <v>0</v>
+      </c>
+      <c r="BS47">
+        <v>0</v>
+      </c>
+      <c r="BT47">
+        <v>0</v>
+      </c>
+      <c r="BU47">
+        <v>0</v>
+      </c>
+      <c r="BV47">
+        <v>0</v>
+      </c>
+      <c r="BW47">
+        <v>0</v>
+      </c>
+      <c r="BX47">
+        <v>0</v>
+      </c>
+      <c r="BY47">
+        <v>0</v>
+      </c>
+      <c r="BZ47">
+        <v>1</v>
+      </c>
+      <c r="CA47">
+        <v>0</v>
+      </c>
+      <c r="CB47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -11389,6 +11849,237 @@
       <c r="C48">
         <v>162</v>
       </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>1</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>1</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>5</v>
+      </c>
+      <c r="AD48">
+        <v>3</v>
+      </c>
+      <c r="AE48">
+        <v>2</v>
+      </c>
+      <c r="AF48">
+        <v>3</v>
+      </c>
+      <c r="AG48">
+        <v>2</v>
+      </c>
+      <c r="AH48">
+        <v>2</v>
+      </c>
+      <c r="AI48">
+        <v>9</v>
+      </c>
+      <c r="AJ48">
+        <v>4</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>3</v>
+      </c>
+      <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
+        <v>2</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>3</v>
+      </c>
+      <c r="AQ48">
+        <v>1</v>
+      </c>
+      <c r="AR48">
+        <v>1</v>
+      </c>
+      <c r="AS48">
+        <v>1</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>8</v>
+      </c>
+      <c r="AV48">
+        <v>4</v>
+      </c>
+      <c r="AW48">
+        <v>4</v>
+      </c>
+      <c r="AX48">
+        <v>13</v>
+      </c>
+      <c r="AY48">
+        <v>7</v>
+      </c>
+      <c r="AZ48">
+        <v>13</v>
+      </c>
+      <c r="BA48">
+        <v>5</v>
+      </c>
+      <c r="BB48">
+        <v>16</v>
+      </c>
+      <c r="BC48">
+        <v>9</v>
+      </c>
+      <c r="BD48">
+        <v>4</v>
+      </c>
+      <c r="BE48">
+        <v>4</v>
+      </c>
+      <c r="BF48">
+        <v>0</v>
+      </c>
+      <c r="BG48">
+        <v>1</v>
+      </c>
+      <c r="BH48">
+        <v>0</v>
+      </c>
+      <c r="BI48">
+        <v>0</v>
+      </c>
+      <c r="BJ48">
+        <v>2</v>
+      </c>
+      <c r="BK48">
+        <v>1</v>
+      </c>
+      <c r="BL48">
+        <v>1</v>
+      </c>
+      <c r="BM48">
+        <v>4</v>
+      </c>
+      <c r="BN48">
+        <v>0</v>
+      </c>
+      <c r="BO48">
+        <v>0</v>
+      </c>
+      <c r="BP48">
+        <v>1</v>
+      </c>
+      <c r="BQ48">
+        <v>1</v>
+      </c>
+      <c r="BR48">
+        <v>0</v>
+      </c>
+      <c r="BS48">
+        <v>1</v>
+      </c>
+      <c r="BT48">
+        <v>1</v>
+      </c>
+      <c r="BU48">
+        <v>2</v>
+      </c>
+      <c r="BV48">
+        <v>0</v>
+      </c>
+      <c r="BW48">
+        <v>1</v>
+      </c>
+      <c r="BX48">
+        <v>0</v>
+      </c>
+      <c r="BY48">
+        <v>0</v>
+      </c>
+      <c r="BZ48">
+        <v>0</v>
+      </c>
+      <c r="CA48">
+        <v>0</v>
+      </c>
+      <c r="CB48">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -11908,6 +12599,204 @@
       <c r="N51">
         <v>1</v>
       </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>2</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
+      </c>
+      <c r="AF51">
+        <v>1</v>
+      </c>
+      <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
+        <v>3</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>0</v>
+      </c>
+      <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>0</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <v>2</v>
+      </c>
+      <c r="AS51">
+        <v>1</v>
+      </c>
+      <c r="AT51">
+        <v>1</v>
+      </c>
+      <c r="AU51">
+        <v>0</v>
+      </c>
+      <c r="AV51">
+        <v>1</v>
+      </c>
+      <c r="AW51">
+        <v>2</v>
+      </c>
+      <c r="AX51">
+        <v>0</v>
+      </c>
+      <c r="AY51">
+        <v>0</v>
+      </c>
+      <c r="AZ51">
+        <v>1</v>
+      </c>
+      <c r="BA51">
+        <v>1</v>
+      </c>
+      <c r="BB51">
+        <v>1</v>
+      </c>
+      <c r="BC51">
+        <v>1</v>
+      </c>
+      <c r="BD51">
+        <v>1</v>
+      </c>
+      <c r="BE51">
+        <v>0</v>
+      </c>
+      <c r="BF51">
+        <v>0</v>
+      </c>
+      <c r="BG51">
+        <v>0</v>
+      </c>
+      <c r="BH51">
+        <v>0</v>
+      </c>
+      <c r="BI51">
+        <v>0</v>
+      </c>
+      <c r="BJ51">
+        <v>0</v>
+      </c>
+      <c r="BK51">
+        <v>0</v>
+      </c>
+      <c r="BL51">
+        <v>0</v>
+      </c>
+      <c r="BM51">
+        <v>0</v>
+      </c>
+      <c r="BN51">
+        <v>0</v>
+      </c>
+      <c r="BO51">
+        <v>0</v>
+      </c>
+      <c r="BP51">
+        <v>0</v>
+      </c>
+      <c r="BQ51">
+        <v>0</v>
+      </c>
+      <c r="BR51">
+        <v>0</v>
+      </c>
+      <c r="BS51">
+        <v>0</v>
+      </c>
+      <c r="BT51">
+        <v>0</v>
+      </c>
+      <c r="BU51">
+        <v>0</v>
+      </c>
+      <c r="BV51">
+        <v>0</v>
+      </c>
+      <c r="BW51">
+        <v>1</v>
+      </c>
+      <c r="BX51">
+        <v>0</v>
+      </c>
+      <c r="BY51">
+        <v>0</v>
+      </c>
+      <c r="BZ51">
+        <v>0</v>
+      </c>
+      <c r="CA51">
+        <v>0</v>
+      </c>
+      <c r="CB51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -13111,6 +14000,237 @@
       <c r="C57">
         <v>189</v>
       </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>6</v>
+      </c>
+      <c r="T57">
+        <v>2</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>2</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>2</v>
+      </c>
+      <c r="AB57">
+        <v>1</v>
+      </c>
+      <c r="AC57">
+        <v>4</v>
+      </c>
+      <c r="AD57">
+        <v>7</v>
+      </c>
+      <c r="AE57">
+        <v>10</v>
+      </c>
+      <c r="AF57">
+        <v>6</v>
+      </c>
+      <c r="AG57">
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <v>3</v>
+      </c>
+      <c r="AI57">
+        <v>11</v>
+      </c>
+      <c r="AJ57">
+        <v>1</v>
+      </c>
+      <c r="AK57">
+        <v>2</v>
+      </c>
+      <c r="AL57">
+        <v>0</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>3</v>
+      </c>
+      <c r="AO57">
+        <v>1</v>
+      </c>
+      <c r="AP57">
+        <v>4</v>
+      </c>
+      <c r="AQ57">
+        <v>6</v>
+      </c>
+      <c r="AR57">
+        <v>9</v>
+      </c>
+      <c r="AS57">
+        <v>5</v>
+      </c>
+      <c r="AT57">
+        <v>0</v>
+      </c>
+      <c r="AU57">
+        <v>12</v>
+      </c>
+      <c r="AV57">
+        <v>2</v>
+      </c>
+      <c r="AW57">
+        <v>3</v>
+      </c>
+      <c r="AX57">
+        <v>6</v>
+      </c>
+      <c r="AY57">
+        <v>13</v>
+      </c>
+      <c r="AZ57">
+        <v>13</v>
+      </c>
+      <c r="BA57">
+        <v>2</v>
+      </c>
+      <c r="BB57">
+        <v>7</v>
+      </c>
+      <c r="BC57">
+        <v>6</v>
+      </c>
+      <c r="BD57">
+        <v>0</v>
+      </c>
+      <c r="BE57">
+        <v>1</v>
+      </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <v>0</v>
+      </c>
+      <c r="BH57">
+        <v>0</v>
+      </c>
+      <c r="BI57">
+        <v>0</v>
+      </c>
+      <c r="BJ57">
+        <v>0</v>
+      </c>
+      <c r="BK57">
+        <v>1</v>
+      </c>
+      <c r="BL57">
+        <v>0</v>
+      </c>
+      <c r="BM57">
+        <v>2</v>
+      </c>
+      <c r="BN57">
+        <v>0</v>
+      </c>
+      <c r="BO57">
+        <v>0</v>
+      </c>
+      <c r="BP57">
+        <v>0</v>
+      </c>
+      <c r="BQ57">
+        <v>0</v>
+      </c>
+      <c r="BR57">
+        <v>0</v>
+      </c>
+      <c r="BS57">
+        <v>0</v>
+      </c>
+      <c r="BT57">
+        <v>1</v>
+      </c>
+      <c r="BU57">
+        <v>11</v>
+      </c>
+      <c r="BV57">
+        <v>0</v>
+      </c>
+      <c r="BW57">
+        <v>0</v>
+      </c>
+      <c r="BX57">
+        <v>0</v>
+      </c>
+      <c r="BY57">
+        <v>0</v>
+      </c>
+      <c r="BZ57">
+        <v>2</v>
+      </c>
+      <c r="CA57">
+        <v>2</v>
+      </c>
+      <c r="CB57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -13687,6 +14807,9 @@
       <c r="AG60">
         <v>0</v>
       </c>
+      <c r="AH60">
+        <v>0</v>
+      </c>
       <c r="AI60">
         <v>1</v>
       </c>
@@ -13830,6 +14953,240 @@
       <c r="A61">
         <v>440</v>
       </c>
+      <c r="C61">
+        <v>89</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>4</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>5</v>
+      </c>
+      <c r="AF61">
+        <v>4</v>
+      </c>
+      <c r="AG61">
+        <v>1</v>
+      </c>
+      <c r="AH61">
+        <v>3</v>
+      </c>
+      <c r="AI61">
+        <v>5</v>
+      </c>
+      <c r="AJ61">
+        <v>3</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>3</v>
+      </c>
+      <c r="AO61">
+        <v>2</v>
+      </c>
+      <c r="AP61">
+        <v>2</v>
+      </c>
+      <c r="AQ61">
+        <v>2</v>
+      </c>
+      <c r="AR61">
+        <v>0</v>
+      </c>
+      <c r="AS61">
+        <v>0</v>
+      </c>
+      <c r="AT61">
+        <v>0</v>
+      </c>
+      <c r="AU61">
+        <v>3</v>
+      </c>
+      <c r="AV61">
+        <v>3</v>
+      </c>
+      <c r="AW61">
+        <v>4</v>
+      </c>
+      <c r="AX61">
+        <v>3</v>
+      </c>
+      <c r="AY61">
+        <v>3</v>
+      </c>
+      <c r="AZ61">
+        <v>5</v>
+      </c>
+      <c r="BA61">
+        <v>4</v>
+      </c>
+      <c r="BB61">
+        <v>2</v>
+      </c>
+      <c r="BC61">
+        <v>2</v>
+      </c>
+      <c r="BD61">
+        <v>2</v>
+      </c>
+      <c r="BE61">
+        <v>1</v>
+      </c>
+      <c r="BF61">
+        <v>0</v>
+      </c>
+      <c r="BG61">
+        <v>0</v>
+      </c>
+      <c r="BH61">
+        <v>0</v>
+      </c>
+      <c r="BI61">
+        <v>0</v>
+      </c>
+      <c r="BJ61">
+        <v>0</v>
+      </c>
+      <c r="BK61">
+        <v>0</v>
+      </c>
+      <c r="BL61">
+        <v>0</v>
+      </c>
+      <c r="BM61">
+        <v>0</v>
+      </c>
+      <c r="BN61">
+        <v>0</v>
+      </c>
+      <c r="BO61">
+        <v>0</v>
+      </c>
+      <c r="BP61">
+        <v>1</v>
+      </c>
+      <c r="BQ61">
+        <v>0</v>
+      </c>
+      <c r="BR61">
+        <v>0</v>
+      </c>
+      <c r="BS61">
+        <v>3</v>
+      </c>
+      <c r="BT61">
+        <v>1</v>
+      </c>
+      <c r="BU61">
+        <v>1</v>
+      </c>
+      <c r="BV61">
+        <v>0</v>
+      </c>
+      <c r="BW61">
+        <v>1</v>
+      </c>
+      <c r="BX61">
+        <v>0</v>
+      </c>
+      <c r="BY61">
+        <v>0</v>
+      </c>
+      <c r="BZ61">
+        <v>1</v>
+      </c>
+      <c r="CA61">
+        <v>0</v>
+      </c>
+      <c r="CB61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -13837,6 +15194,237 @@
       </c>
       <c r="C62">
         <v>242</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>9</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>7</v>
+      </c>
+      <c r="M62">
+        <v>6</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62">
+        <v>3</v>
+      </c>
+      <c r="P62">
+        <v>3</v>
+      </c>
+      <c r="Q62">
+        <v>6</v>
+      </c>
+      <c r="R62">
+        <v>3</v>
+      </c>
+      <c r="S62">
+        <v>3</v>
+      </c>
+      <c r="T62">
+        <v>7</v>
+      </c>
+      <c r="U62">
+        <v>5</v>
+      </c>
+      <c r="V62">
+        <v>3</v>
+      </c>
+      <c r="W62">
+        <v>5</v>
+      </c>
+      <c r="X62">
+        <v>3</v>
+      </c>
+      <c r="Y62">
+        <v>3</v>
+      </c>
+      <c r="Z62">
+        <v>3</v>
+      </c>
+      <c r="AA62">
+        <v>2</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>6</v>
+      </c>
+      <c r="AD62">
+        <v>2</v>
+      </c>
+      <c r="AE62">
+        <v>1</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>2</v>
+      </c>
+      <c r="AH62">
+        <v>4</v>
+      </c>
+      <c r="AI62">
+        <v>3</v>
+      </c>
+      <c r="AJ62">
+        <v>2</v>
+      </c>
+      <c r="AK62">
+        <v>5</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
+        <v>6</v>
+      </c>
+      <c r="AN62">
+        <v>2</v>
+      </c>
+      <c r="AO62">
+        <v>0</v>
+      </c>
+      <c r="AP62">
+        <v>2</v>
+      </c>
+      <c r="AQ62">
+        <v>1</v>
+      </c>
+      <c r="AR62">
+        <v>0</v>
+      </c>
+      <c r="AS62">
+        <v>4</v>
+      </c>
+      <c r="AT62">
+        <v>8</v>
+      </c>
+      <c r="AU62">
+        <v>3</v>
+      </c>
+      <c r="AV62">
+        <v>5</v>
+      </c>
+      <c r="AW62">
+        <v>4</v>
+      </c>
+      <c r="AX62">
+        <v>8</v>
+      </c>
+      <c r="AY62">
+        <v>2</v>
+      </c>
+      <c r="AZ62">
+        <v>1</v>
+      </c>
+      <c r="BA62">
+        <v>3</v>
+      </c>
+      <c r="BB62">
+        <v>3</v>
+      </c>
+      <c r="BC62">
+        <v>6</v>
+      </c>
+      <c r="BD62">
+        <v>5</v>
+      </c>
+      <c r="BE62">
+        <v>0</v>
+      </c>
+      <c r="BF62">
+        <v>0</v>
+      </c>
+      <c r="BG62">
+        <v>3</v>
+      </c>
+      <c r="BH62">
+        <v>1</v>
+      </c>
+      <c r="BI62">
+        <v>9</v>
+      </c>
+      <c r="BJ62">
+        <v>5</v>
+      </c>
+      <c r="BK62">
+        <v>2</v>
+      </c>
+      <c r="BL62">
+        <v>3</v>
+      </c>
+      <c r="BM62">
+        <v>2</v>
+      </c>
+      <c r="BN62">
+        <v>2</v>
+      </c>
+      <c r="BO62">
+        <v>6</v>
+      </c>
+      <c r="BP62">
+        <v>6</v>
+      </c>
+      <c r="BQ62">
+        <v>4</v>
+      </c>
+      <c r="BR62">
+        <v>3</v>
+      </c>
+      <c r="BS62">
+        <v>2</v>
+      </c>
+      <c r="BT62">
+        <v>2</v>
+      </c>
+      <c r="BU62">
+        <v>0</v>
+      </c>
+      <c r="BV62">
+        <v>2</v>
+      </c>
+      <c r="BW62">
+        <v>3</v>
+      </c>
+      <c r="BX62">
+        <v>2</v>
+      </c>
+      <c r="BY62">
+        <v>3</v>
+      </c>
+      <c r="BZ62">
+        <v>0</v>
+      </c>
+      <c r="CA62">
+        <v>2</v>
+      </c>
+      <c r="CB62">
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:80" x14ac:dyDescent="0.25">
@@ -14090,28 +15678,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Lovejoy data table_Frequency of capture.xlsx
+++ b/Lovejoy data table_Frequency of capture.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t>Bird Species</t>
   </si>
@@ -125,6 +125,66 @@
   </si>
   <si>
     <t>Coccyzus euleri</t>
+  </si>
+  <si>
+    <t>Phaethornis superciliosus</t>
+  </si>
+  <si>
+    <t>Pipra fasciicauda</t>
+  </si>
+  <si>
+    <t>Turdus fumigatus</t>
+  </si>
+  <si>
+    <t>Basileuterus rivularis</t>
+  </si>
+  <si>
+    <t>Phaethornis ruber</t>
+  </si>
+  <si>
+    <t>Chloroceryle inda</t>
+  </si>
+  <si>
+    <t>Xiphorphynchus guttatus</t>
+  </si>
+  <si>
+    <t>Philydor pyrrhodes</t>
+  </si>
+  <si>
+    <t>Thamnophilus aethiops</t>
+  </si>
+  <si>
+    <t>Pipra iris</t>
+  </si>
+  <si>
+    <t>Notharctus tectus</t>
+  </si>
+  <si>
+    <t>Pteroglossus aracari</t>
+  </si>
+  <si>
+    <t>Cotinga cayana</t>
+  </si>
+  <si>
+    <t>Cyanerpes cyaneus</t>
+  </si>
+  <si>
+    <t>Euphonia violacea</t>
+  </si>
+  <si>
+    <t>Nyctidromus albicollis</t>
+  </si>
+  <si>
+    <t>Piaya minuta</t>
+  </si>
+  <si>
+    <t>Trogon violaceus</t>
+  </si>
+  <si>
+    <t>Pteroglossus bitorquatus</t>
+  </si>
+  <si>
+    <t>Veniliornis affinis</t>
   </si>
 </sst>
 </file>
@@ -474,11 +534,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CB64"/>
+  <dimension ref="A1:CC64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H78" sqref="H78"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10651,6 +10711,9 @@
       <c r="A43">
         <v>331</v>
       </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
       <c r="C43">
         <v>217</v>
       </c>
@@ -10890,6 +10953,9 @@
       <c r="A44">
         <v>336</v>
       </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
       <c r="C44">
         <v>1</v>
       </c>
@@ -11129,6 +11195,9 @@
       <c r="A45">
         <v>337</v>
       </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
       <c r="C45">
         <v>0</v>
       </c>
@@ -11368,6 +11437,9 @@
       <c r="A46">
         <v>343</v>
       </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
       <c r="C46">
         <v>0</v>
       </c>
@@ -11607,6 +11679,9 @@
       <c r="A47">
         <v>344</v>
       </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
       <c r="C47">
         <v>41</v>
       </c>
@@ -11846,6 +11921,9 @@
       <c r="A48">
         <v>350</v>
       </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
       <c r="C48">
         <v>162</v>
       </c>
@@ -12081,10 +12159,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>351</v>
       </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
       <c r="C49">
         <v>7</v>
       </c>
@@ -12320,10 +12401,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>355</v>
       </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
       <c r="C50">
         <v>2</v>
       </c>
@@ -12559,10 +12643,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>356</v>
       </c>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
       <c r="C51">
         <v>28</v>
       </c>
@@ -12798,10 +12885,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>359</v>
       </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
       <c r="C52">
         <v>0</v>
       </c>
@@ -13037,10 +13127,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>425</v>
       </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
       <c r="C53">
         <v>6</v>
       </c>
@@ -13276,10 +13369,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>429</v>
       </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
       <c r="C54">
         <v>1</v>
       </c>
@@ -13515,10 +13611,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>431</v>
       </c>
+      <c r="B55" t="s">
+        <v>41</v>
+      </c>
       <c r="C55">
         <v>22</v>
       </c>
@@ -13754,10 +13853,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>432</v>
       </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
       <c r="C56">
         <v>1</v>
       </c>
@@ -13993,10 +14095,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>433</v>
       </c>
+      <c r="B57" t="s">
+        <v>42</v>
+      </c>
       <c r="C57">
         <v>189</v>
       </c>
@@ -14232,10 +14337,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>437</v>
       </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
       <c r="C58">
         <v>7</v>
       </c>
@@ -14471,10 +14579,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>438</v>
       </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
       <c r="C59">
         <v>4</v>
       </c>
@@ -14710,10 +14821,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>439</v>
       </c>
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
       <c r="C60">
         <v>24</v>
       </c>
@@ -14949,10 +15063,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>440</v>
       </c>
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
       <c r="C61">
         <v>89</v>
       </c>
@@ -15188,10 +15305,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>441</v>
       </c>
+      <c r="B62" t="s">
+        <v>45</v>
+      </c>
       <c r="C62">
         <v>242</v>
       </c>
@@ -15427,10 +15547,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>444</v>
       </c>
+      <c r="B63" t="s">
+        <v>46</v>
+      </c>
       <c r="C63">
         <v>14</v>
       </c>
@@ -15666,12 +15789,250 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>448</v>
       </c>
+      <c r="B64" t="s">
+        <v>26</v>
+      </c>
       <c r="C64">
         <v>100</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>5</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>3</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>5</v>
+      </c>
+      <c r="Q64">
+        <v>2</v>
+      </c>
+      <c r="R64">
+        <v>4</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>4</v>
+      </c>
+      <c r="U64">
+        <v>4</v>
+      </c>
+      <c r="V64">
+        <v>1</v>
+      </c>
+      <c r="W64">
+        <v>5</v>
+      </c>
+      <c r="X64">
+        <v>2</v>
+      </c>
+      <c r="Y64">
+        <v>3</v>
+      </c>
+      <c r="Z64">
+        <v>1</v>
+      </c>
+      <c r="AA64">
+        <v>3</v>
+      </c>
+      <c r="AB64">
+        <v>1</v>
+      </c>
+      <c r="AC64">
+        <v>3</v>
+      </c>
+      <c r="AD64">
+        <v>2</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>0</v>
+      </c>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>1</v>
+      </c>
+      <c r="AL64">
+        <v>3</v>
+      </c>
+      <c r="AM64">
+        <v>4</v>
+      </c>
+      <c r="AN64">
+        <v>0</v>
+      </c>
+      <c r="AO64">
+        <v>3</v>
+      </c>
+      <c r="AP64">
+        <v>1</v>
+      </c>
+      <c r="AQ64">
+        <v>1</v>
+      </c>
+      <c r="AR64">
+        <v>0</v>
+      </c>
+      <c r="AS64">
+        <v>3</v>
+      </c>
+      <c r="AT64">
+        <v>1</v>
+      </c>
+      <c r="AU64">
+        <v>0</v>
+      </c>
+      <c r="AV64">
+        <v>0</v>
+      </c>
+      <c r="AW64">
+        <v>0</v>
+      </c>
+      <c r="AX64">
+        <v>0</v>
+      </c>
+      <c r="AY64">
+        <v>0</v>
+      </c>
+      <c r="AZ64">
+        <v>0</v>
+      </c>
+      <c r="BA64">
+        <v>0</v>
+      </c>
+      <c r="BB64">
+        <v>0</v>
+      </c>
+      <c r="BC64">
+        <v>0</v>
+      </c>
+      <c r="BD64">
+        <v>0</v>
+      </c>
+      <c r="BE64">
+        <v>0</v>
+      </c>
+      <c r="BF64">
+        <v>0</v>
+      </c>
+      <c r="BG64">
+        <v>0</v>
+      </c>
+      <c r="BH64">
+        <v>1</v>
+      </c>
+      <c r="BI64">
+        <v>2</v>
+      </c>
+      <c r="BJ64">
+        <v>5</v>
+      </c>
+      <c r="BK64">
+        <v>4</v>
+      </c>
+      <c r="BL64">
+        <v>1</v>
+      </c>
+      <c r="BM64">
+        <v>0</v>
+      </c>
+      <c r="BN64">
+        <v>1</v>
+      </c>
+      <c r="BO64">
+        <v>9</v>
+      </c>
+      <c r="BP64">
+        <v>0</v>
+      </c>
+      <c r="BQ64">
+        <v>0</v>
+      </c>
+      <c r="BR64">
+        <v>0</v>
+      </c>
+      <c r="BS64">
+        <v>0</v>
+      </c>
+      <c r="BT64">
+        <v>0</v>
+      </c>
+      <c r="BU64">
+        <v>0</v>
+      </c>
+      <c r="BV64">
+        <v>1</v>
+      </c>
+      <c r="BW64">
+        <v>0</v>
+      </c>
+      <c r="BX64">
+        <v>0</v>
+      </c>
+      <c r="BY64">
+        <v>0</v>
+      </c>
+      <c r="BZ64">
+        <v>0</v>
+      </c>
+      <c r="CA64">
+        <v>1</v>
+      </c>
+      <c r="CB64">
+        <v>0</v>
+      </c>
+      <c r="CC64">
+        <f>SUM(D64:CB64)</f>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Lovejoy data table_Frequency of capture.xlsx
+++ b/Lovejoy data table_Frequency of capture.xlsx
@@ -534,11 +534,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CC64"/>
+  <dimension ref="A1:CB86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12159,7 +12159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>351</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>355</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>356</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>359</v>
       </c>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>425</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>429</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>431</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>432</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>433</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>437</v>
       </c>
@@ -14579,7 +14579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>438</v>
       </c>
@@ -14821,7 +14821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>439</v>
       </c>
@@ -15063,7 +15063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>440</v>
       </c>
@@ -15305,7 +15305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>441</v>
       </c>
@@ -15547,7 +15547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>444</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>448</v>
       </c>
@@ -16030,9 +16030,1336 @@
       <c r="CB64">
         <v>0</v>
       </c>
-      <c r="CC64">
-        <f>SUM(D64:CB64)</f>
-        <v>99</v>
+    </row>
+    <row r="65" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>454</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>0</v>
+      </c>
+      <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>0</v>
+      </c>
+      <c r="AQ65">
+        <v>0</v>
+      </c>
+      <c r="AR65">
+        <v>0</v>
+      </c>
+      <c r="AS65">
+        <v>0</v>
+      </c>
+      <c r="AT65">
+        <v>0</v>
+      </c>
+      <c r="AU65">
+        <v>0</v>
+      </c>
+      <c r="AV65">
+        <v>0</v>
+      </c>
+      <c r="AW65">
+        <v>0</v>
+      </c>
+      <c r="AX65">
+        <v>0</v>
+      </c>
+      <c r="AY65">
+        <v>0</v>
+      </c>
+      <c r="AZ65">
+        <v>0</v>
+      </c>
+      <c r="BA65">
+        <v>0</v>
+      </c>
+      <c r="BB65">
+        <v>0</v>
+      </c>
+      <c r="BC65">
+        <v>0</v>
+      </c>
+      <c r="BD65">
+        <v>0</v>
+      </c>
+      <c r="BE65">
+        <v>0</v>
+      </c>
+      <c r="BF65">
+        <v>0</v>
+      </c>
+      <c r="BG65">
+        <v>0</v>
+      </c>
+      <c r="BH65">
+        <v>0</v>
+      </c>
+      <c r="BI65">
+        <v>0</v>
+      </c>
+      <c r="BJ65">
+        <v>0</v>
+      </c>
+      <c r="BK65">
+        <v>0</v>
+      </c>
+      <c r="BL65">
+        <v>0</v>
+      </c>
+      <c r="BM65">
+        <v>0</v>
+      </c>
+      <c r="BN65">
+        <v>0</v>
+      </c>
+      <c r="BO65">
+        <v>0</v>
+      </c>
+      <c r="BP65">
+        <v>0</v>
+      </c>
+      <c r="BQ65">
+        <v>0</v>
+      </c>
+      <c r="BR65">
+        <v>0</v>
+      </c>
+      <c r="BS65">
+        <v>0</v>
+      </c>
+      <c r="BT65">
+        <v>0</v>
+      </c>
+      <c r="BU65">
+        <v>0</v>
+      </c>
+      <c r="BV65">
+        <v>0</v>
+      </c>
+      <c r="BW65">
+        <v>0</v>
+      </c>
+      <c r="BX65">
+        <v>0</v>
+      </c>
+      <c r="BY65">
+        <v>0</v>
+      </c>
+      <c r="BZ65">
+        <v>0</v>
+      </c>
+      <c r="CA65">
+        <v>0</v>
+      </c>
+      <c r="CB65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>455</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>457</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>459</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>501</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>523</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>527</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>530</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>0</v>
+      </c>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>0</v>
+      </c>
+      <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>0</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>0</v>
+      </c>
+      <c r="AQ72">
+        <v>0</v>
+      </c>
+      <c r="AR72">
+        <v>0</v>
+      </c>
+      <c r="AS72">
+        <v>0</v>
+      </c>
+      <c r="AT72">
+        <v>0</v>
+      </c>
+      <c r="AU72">
+        <v>0</v>
+      </c>
+      <c r="AV72">
+        <v>0</v>
+      </c>
+      <c r="AW72">
+        <v>0</v>
+      </c>
+      <c r="AX72">
+        <v>0</v>
+      </c>
+      <c r="AY72">
+        <v>0</v>
+      </c>
+      <c r="AZ72">
+        <v>0</v>
+      </c>
+      <c r="BA72">
+        <v>0</v>
+      </c>
+      <c r="BB72">
+        <v>0</v>
+      </c>
+      <c r="BC72">
+        <v>0</v>
+      </c>
+      <c r="BD72">
+        <v>0</v>
+      </c>
+      <c r="BE72">
+        <v>0</v>
+      </c>
+      <c r="BF72">
+        <v>0</v>
+      </c>
+      <c r="BG72">
+        <v>0</v>
+      </c>
+      <c r="BH72">
+        <v>0</v>
+      </c>
+      <c r="BI72">
+        <v>0</v>
+      </c>
+      <c r="BJ72">
+        <v>0</v>
+      </c>
+      <c r="BK72">
+        <v>0</v>
+      </c>
+      <c r="BL72">
+        <v>0</v>
+      </c>
+      <c r="BM72">
+        <v>0</v>
+      </c>
+      <c r="BN72">
+        <v>0</v>
+      </c>
+      <c r="BO72">
+        <v>0</v>
+      </c>
+      <c r="BP72">
+        <v>0</v>
+      </c>
+      <c r="BQ72">
+        <v>0</v>
+      </c>
+      <c r="BR72">
+        <v>0</v>
+      </c>
+      <c r="BS72">
+        <v>0</v>
+      </c>
+      <c r="BT72">
+        <v>0</v>
+      </c>
+      <c r="BU72">
+        <v>0</v>
+      </c>
+      <c r="BV72">
+        <v>0</v>
+      </c>
+      <c r="BW72">
+        <v>0</v>
+      </c>
+      <c r="BX72">
+        <v>0</v>
+      </c>
+      <c r="BY72">
+        <v>0</v>
+      </c>
+      <c r="BZ72">
+        <v>0</v>
+      </c>
+      <c r="CA72">
+        <v>0</v>
+      </c>
+      <c r="CB72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>531</v>
+      </c>
+      <c r="C73">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>532</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>0</v>
+      </c>
+      <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>0</v>
+      </c>
+      <c r="AO74">
+        <v>0</v>
+      </c>
+      <c r="AP74">
+        <v>0</v>
+      </c>
+      <c r="AQ74">
+        <v>0</v>
+      </c>
+      <c r="AR74">
+        <v>0</v>
+      </c>
+      <c r="AS74">
+        <v>0</v>
+      </c>
+      <c r="AT74">
+        <v>0</v>
+      </c>
+      <c r="AU74">
+        <v>0</v>
+      </c>
+      <c r="AV74">
+        <v>0</v>
+      </c>
+      <c r="AW74">
+        <v>0</v>
+      </c>
+      <c r="AX74">
+        <v>0</v>
+      </c>
+      <c r="AY74">
+        <v>0</v>
+      </c>
+      <c r="AZ74">
+        <v>0</v>
+      </c>
+      <c r="BA74">
+        <v>0</v>
+      </c>
+      <c r="BB74">
+        <v>0</v>
+      </c>
+      <c r="BC74">
+        <v>0</v>
+      </c>
+      <c r="BD74">
+        <v>0</v>
+      </c>
+      <c r="BE74">
+        <v>0</v>
+      </c>
+      <c r="BF74">
+        <v>0</v>
+      </c>
+      <c r="BG74">
+        <v>0</v>
+      </c>
+      <c r="BH74">
+        <v>0</v>
+      </c>
+      <c r="BI74">
+        <v>0</v>
+      </c>
+      <c r="BJ74">
+        <v>0</v>
+      </c>
+      <c r="BK74">
+        <v>0</v>
+      </c>
+      <c r="BL74">
+        <v>0</v>
+      </c>
+      <c r="BM74">
+        <v>0</v>
+      </c>
+      <c r="BN74">
+        <v>0</v>
+      </c>
+      <c r="BO74">
+        <v>0</v>
+      </c>
+      <c r="BP74">
+        <v>0</v>
+      </c>
+      <c r="BQ74">
+        <v>0</v>
+      </c>
+      <c r="BR74">
+        <v>0</v>
+      </c>
+      <c r="BS74">
+        <v>0</v>
+      </c>
+      <c r="BT74">
+        <v>0</v>
+      </c>
+      <c r="BU74">
+        <v>0</v>
+      </c>
+      <c r="BV74">
+        <v>0</v>
+      </c>
+      <c r="BW74">
+        <v>0</v>
+      </c>
+      <c r="BX74">
+        <v>0</v>
+      </c>
+      <c r="BY74">
+        <v>0</v>
+      </c>
+      <c r="BZ74">
+        <v>0</v>
+      </c>
+      <c r="CA74">
+        <v>0</v>
+      </c>
+      <c r="CB74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>533</v>
+      </c>
+      <c r="C75">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>536</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>537</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>538</v>
+      </c>
+      <c r="C78">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>539</v>
+      </c>
+      <c r="C79">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>540</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <v>0</v>
+      </c>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <v>0</v>
+      </c>
+      <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AN80">
+        <v>0</v>
+      </c>
+      <c r="AO80">
+        <v>0</v>
+      </c>
+      <c r="AP80">
+        <v>0</v>
+      </c>
+      <c r="AQ80">
+        <v>0</v>
+      </c>
+      <c r="AR80">
+        <v>0</v>
+      </c>
+      <c r="AS80">
+        <v>0</v>
+      </c>
+      <c r="AT80">
+        <v>0</v>
+      </c>
+      <c r="AU80">
+        <v>0</v>
+      </c>
+      <c r="AV80">
+        <v>0</v>
+      </c>
+      <c r="AW80">
+        <v>0</v>
+      </c>
+      <c r="AX80">
+        <v>0</v>
+      </c>
+      <c r="AY80">
+        <v>0</v>
+      </c>
+      <c r="AZ80">
+        <v>0</v>
+      </c>
+      <c r="BA80">
+        <v>0</v>
+      </c>
+      <c r="BB80">
+        <v>0</v>
+      </c>
+      <c r="BC80">
+        <v>0</v>
+      </c>
+      <c r="BD80">
+        <v>0</v>
+      </c>
+      <c r="BE80">
+        <v>0</v>
+      </c>
+      <c r="BF80">
+        <v>0</v>
+      </c>
+      <c r="BG80">
+        <v>0</v>
+      </c>
+      <c r="BH80">
+        <v>0</v>
+      </c>
+      <c r="BI80">
+        <v>0</v>
+      </c>
+      <c r="BJ80">
+        <v>0</v>
+      </c>
+      <c r="BK80">
+        <v>0</v>
+      </c>
+      <c r="BL80">
+        <v>0</v>
+      </c>
+      <c r="BM80">
+        <v>0</v>
+      </c>
+      <c r="BN80">
+        <v>0</v>
+      </c>
+      <c r="BO80">
+        <v>0</v>
+      </c>
+      <c r="BP80">
+        <v>0</v>
+      </c>
+      <c r="BQ80">
+        <v>0</v>
+      </c>
+      <c r="BR80">
+        <v>0</v>
+      </c>
+      <c r="BS80">
+        <v>0</v>
+      </c>
+      <c r="BT80">
+        <v>0</v>
+      </c>
+      <c r="BU80">
+        <v>0</v>
+      </c>
+      <c r="BV80">
+        <v>0</v>
+      </c>
+      <c r="BW80">
+        <v>0</v>
+      </c>
+      <c r="BX80">
+        <v>0</v>
+      </c>
+      <c r="BY80">
+        <v>0</v>
+      </c>
+      <c r="BZ80">
+        <v>0</v>
+      </c>
+      <c r="CA80">
+        <v>0</v>
+      </c>
+      <c r="CB80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>541</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>544</v>
+      </c>
+      <c r="C82">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="83" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>550</v>
+      </c>
+      <c r="C83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>557</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>623</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>0</v>
+      </c>
+      <c r="AG85">
+        <v>0</v>
+      </c>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <v>0</v>
+      </c>
+      <c r="AM85">
+        <v>0</v>
+      </c>
+      <c r="AN85">
+        <v>0</v>
+      </c>
+      <c r="AO85">
+        <v>0</v>
+      </c>
+      <c r="AP85">
+        <v>0</v>
+      </c>
+      <c r="AQ85">
+        <v>0</v>
+      </c>
+      <c r="AR85">
+        <v>0</v>
+      </c>
+      <c r="AS85">
+        <v>0</v>
+      </c>
+      <c r="AT85">
+        <v>0</v>
+      </c>
+      <c r="AU85">
+        <v>0</v>
+      </c>
+      <c r="AV85">
+        <v>0</v>
+      </c>
+      <c r="AW85">
+        <v>0</v>
+      </c>
+      <c r="AX85">
+        <v>0</v>
+      </c>
+      <c r="AY85">
+        <v>0</v>
+      </c>
+      <c r="AZ85">
+        <v>0</v>
+      </c>
+      <c r="BA85">
+        <v>0</v>
+      </c>
+      <c r="BB85">
+        <v>0</v>
+      </c>
+      <c r="BC85">
+        <v>0</v>
+      </c>
+      <c r="BD85">
+        <v>0</v>
+      </c>
+      <c r="BE85">
+        <v>0</v>
+      </c>
+      <c r="BF85">
+        <v>0</v>
+      </c>
+      <c r="BG85">
+        <v>0</v>
+      </c>
+      <c r="BH85">
+        <v>0</v>
+      </c>
+      <c r="BI85">
+        <v>0</v>
+      </c>
+      <c r="BJ85">
+        <v>0</v>
+      </c>
+      <c r="BK85">
+        <v>0</v>
+      </c>
+      <c r="BL85">
+        <v>0</v>
+      </c>
+      <c r="BM85">
+        <v>0</v>
+      </c>
+      <c r="BN85">
+        <v>0</v>
+      </c>
+      <c r="BO85">
+        <v>0</v>
+      </c>
+      <c r="BP85">
+        <v>0</v>
+      </c>
+      <c r="BQ85">
+        <v>0</v>
+      </c>
+      <c r="BR85">
+        <v>0</v>
+      </c>
+      <c r="BS85">
+        <v>0</v>
+      </c>
+      <c r="BT85">
+        <v>0</v>
+      </c>
+      <c r="BU85">
+        <v>0</v>
+      </c>
+      <c r="BV85">
+        <v>0</v>
+      </c>
+      <c r="BW85">
+        <v>0</v>
+      </c>
+      <c r="BX85">
+        <v>0</v>
+      </c>
+      <c r="BY85">
+        <v>0</v>
+      </c>
+      <c r="BZ85">
+        <v>0</v>
+      </c>
+      <c r="CA85">
+        <v>0</v>
+      </c>
+      <c r="CB85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>629</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Lovejoy data table_Frequency of capture.xlsx
+++ b/Lovejoy data table_Frequency of capture.xlsx
@@ -537,8 +537,8 @@
   <dimension ref="A1:CB86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16277,6 +16277,237 @@
       <c r="C66">
         <v>1</v>
       </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>0</v>
+      </c>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>0</v>
+      </c>
+      <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>0</v>
+      </c>
+      <c r="AO66">
+        <v>0</v>
+      </c>
+      <c r="AP66">
+        <v>0</v>
+      </c>
+      <c r="AQ66">
+        <v>0</v>
+      </c>
+      <c r="AR66">
+        <v>0</v>
+      </c>
+      <c r="AS66">
+        <v>0</v>
+      </c>
+      <c r="AT66">
+        <v>0</v>
+      </c>
+      <c r="AU66">
+        <v>0</v>
+      </c>
+      <c r="AV66">
+        <v>0</v>
+      </c>
+      <c r="AW66">
+        <v>0</v>
+      </c>
+      <c r="AX66">
+        <v>0</v>
+      </c>
+      <c r="AY66">
+        <v>0</v>
+      </c>
+      <c r="AZ66">
+        <v>0</v>
+      </c>
+      <c r="BA66">
+        <v>0</v>
+      </c>
+      <c r="BB66">
+        <v>0</v>
+      </c>
+      <c r="BC66">
+        <v>0</v>
+      </c>
+      <c r="BD66">
+        <v>0</v>
+      </c>
+      <c r="BE66">
+        <v>0</v>
+      </c>
+      <c r="BF66">
+        <v>0</v>
+      </c>
+      <c r="BG66">
+        <v>0</v>
+      </c>
+      <c r="BH66">
+        <v>0</v>
+      </c>
+      <c r="BI66">
+        <v>0</v>
+      </c>
+      <c r="BJ66">
+        <v>0</v>
+      </c>
+      <c r="BK66">
+        <v>0</v>
+      </c>
+      <c r="BL66">
+        <v>0</v>
+      </c>
+      <c r="BM66">
+        <v>0</v>
+      </c>
+      <c r="BN66">
+        <v>0</v>
+      </c>
+      <c r="BO66">
+        <v>0</v>
+      </c>
+      <c r="BP66">
+        <v>0</v>
+      </c>
+      <c r="BQ66">
+        <v>0</v>
+      </c>
+      <c r="BR66">
+        <v>0</v>
+      </c>
+      <c r="BS66">
+        <v>0</v>
+      </c>
+      <c r="BT66">
+        <v>0</v>
+      </c>
+      <c r="BU66">
+        <v>0</v>
+      </c>
+      <c r="BV66">
+        <v>0</v>
+      </c>
+      <c r="BW66">
+        <v>1</v>
+      </c>
+      <c r="BX66">
+        <v>0</v>
+      </c>
+      <c r="BY66">
+        <v>0</v>
+      </c>
+      <c r="BZ66">
+        <v>0</v>
+      </c>
+      <c r="CA66">
+        <v>0</v>
+      </c>
+      <c r="CB66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A67">
@@ -16285,6 +16516,237 @@
       <c r="C67">
         <v>3</v>
       </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>1</v>
+      </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>0</v>
+      </c>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>0</v>
+      </c>
+      <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>0</v>
+      </c>
+      <c r="AO67">
+        <v>0</v>
+      </c>
+      <c r="AP67">
+        <v>0</v>
+      </c>
+      <c r="AQ67">
+        <v>0</v>
+      </c>
+      <c r="AR67">
+        <v>0</v>
+      </c>
+      <c r="AS67">
+        <v>0</v>
+      </c>
+      <c r="AT67">
+        <v>0</v>
+      </c>
+      <c r="AU67">
+        <v>0</v>
+      </c>
+      <c r="AV67">
+        <v>0</v>
+      </c>
+      <c r="AW67">
+        <v>0</v>
+      </c>
+      <c r="AX67">
+        <v>0</v>
+      </c>
+      <c r="AY67">
+        <v>0</v>
+      </c>
+      <c r="AZ67">
+        <v>0</v>
+      </c>
+      <c r="BA67">
+        <v>0</v>
+      </c>
+      <c r="BB67">
+        <v>0</v>
+      </c>
+      <c r="BC67">
+        <v>0</v>
+      </c>
+      <c r="BD67">
+        <v>0</v>
+      </c>
+      <c r="BE67">
+        <v>0</v>
+      </c>
+      <c r="BF67">
+        <v>0</v>
+      </c>
+      <c r="BG67">
+        <v>0</v>
+      </c>
+      <c r="BH67">
+        <v>0</v>
+      </c>
+      <c r="BI67">
+        <v>0</v>
+      </c>
+      <c r="BJ67">
+        <v>0</v>
+      </c>
+      <c r="BK67">
+        <v>0</v>
+      </c>
+      <c r="BL67">
+        <v>0</v>
+      </c>
+      <c r="BM67">
+        <v>0</v>
+      </c>
+      <c r="BN67">
+        <v>0</v>
+      </c>
+      <c r="BO67">
+        <v>0</v>
+      </c>
+      <c r="BP67">
+        <v>0</v>
+      </c>
+      <c r="BQ67">
+        <v>0</v>
+      </c>
+      <c r="BR67">
+        <v>0</v>
+      </c>
+      <c r="BS67">
+        <v>0</v>
+      </c>
+      <c r="BT67">
+        <v>0</v>
+      </c>
+      <c r="BU67">
+        <v>0</v>
+      </c>
+      <c r="BV67">
+        <v>0</v>
+      </c>
+      <c r="BW67">
+        <v>0</v>
+      </c>
+      <c r="BX67">
+        <v>0</v>
+      </c>
+      <c r="BY67">
+        <v>0</v>
+      </c>
+      <c r="BZ67">
+        <v>0</v>
+      </c>
+      <c r="CA67">
+        <v>0</v>
+      </c>
+      <c r="CB67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A68">
@@ -16293,6 +16755,237 @@
       <c r="C68">
         <v>3</v>
       </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>1</v>
+      </c>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>0</v>
+      </c>
+      <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>0</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>0</v>
+      </c>
+      <c r="AQ68">
+        <v>0</v>
+      </c>
+      <c r="AR68">
+        <v>0</v>
+      </c>
+      <c r="AS68">
+        <v>0</v>
+      </c>
+      <c r="AT68">
+        <v>0</v>
+      </c>
+      <c r="AU68">
+        <v>0</v>
+      </c>
+      <c r="AV68">
+        <v>0</v>
+      </c>
+      <c r="AW68">
+        <v>0</v>
+      </c>
+      <c r="AX68">
+        <v>0</v>
+      </c>
+      <c r="AY68">
+        <v>0</v>
+      </c>
+      <c r="AZ68">
+        <v>0</v>
+      </c>
+      <c r="BA68">
+        <v>0</v>
+      </c>
+      <c r="BB68">
+        <v>0</v>
+      </c>
+      <c r="BC68">
+        <v>0</v>
+      </c>
+      <c r="BD68">
+        <v>0</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>0</v>
+      </c>
+      <c r="BG68">
+        <v>0</v>
+      </c>
+      <c r="BH68">
+        <v>0</v>
+      </c>
+      <c r="BI68">
+        <v>0</v>
+      </c>
+      <c r="BJ68">
+        <v>0</v>
+      </c>
+      <c r="BK68">
+        <v>0</v>
+      </c>
+      <c r="BL68">
+        <v>0</v>
+      </c>
+      <c r="BM68">
+        <v>0</v>
+      </c>
+      <c r="BN68">
+        <v>0</v>
+      </c>
+      <c r="BO68">
+        <v>0</v>
+      </c>
+      <c r="BP68">
+        <v>0</v>
+      </c>
+      <c r="BQ68">
+        <v>0</v>
+      </c>
+      <c r="BR68">
+        <v>0</v>
+      </c>
+      <c r="BS68">
+        <v>0</v>
+      </c>
+      <c r="BT68">
+        <v>0</v>
+      </c>
+      <c r="BU68">
+        <v>0</v>
+      </c>
+      <c r="BV68">
+        <v>0</v>
+      </c>
+      <c r="BW68">
+        <v>0</v>
+      </c>
+      <c r="BX68">
+        <v>0</v>
+      </c>
+      <c r="BY68">
+        <v>0</v>
+      </c>
+      <c r="BZ68">
+        <v>0</v>
+      </c>
+      <c r="CA68">
+        <v>0</v>
+      </c>
+      <c r="CB68">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -16301,6 +16994,237 @@
       <c r="C69">
         <v>1</v>
       </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>1</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AF69">
+        <v>0</v>
+      </c>
+      <c r="AG69">
+        <v>0</v>
+      </c>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AL69">
+        <v>0</v>
+      </c>
+      <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>0</v>
+      </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+      <c r="AP69">
+        <v>0</v>
+      </c>
+      <c r="AQ69">
+        <v>0</v>
+      </c>
+      <c r="AR69">
+        <v>0</v>
+      </c>
+      <c r="AS69">
+        <v>0</v>
+      </c>
+      <c r="AT69">
+        <v>0</v>
+      </c>
+      <c r="AU69">
+        <v>0</v>
+      </c>
+      <c r="AV69">
+        <v>0</v>
+      </c>
+      <c r="AW69">
+        <v>0</v>
+      </c>
+      <c r="AX69">
+        <v>0</v>
+      </c>
+      <c r="AY69">
+        <v>0</v>
+      </c>
+      <c r="AZ69">
+        <v>0</v>
+      </c>
+      <c r="BA69">
+        <v>0</v>
+      </c>
+      <c r="BB69">
+        <v>0</v>
+      </c>
+      <c r="BC69">
+        <v>0</v>
+      </c>
+      <c r="BD69">
+        <v>0</v>
+      </c>
+      <c r="BE69">
+        <v>0</v>
+      </c>
+      <c r="BF69">
+        <v>0</v>
+      </c>
+      <c r="BG69">
+        <v>0</v>
+      </c>
+      <c r="BH69">
+        <v>0</v>
+      </c>
+      <c r="BI69">
+        <v>0</v>
+      </c>
+      <c r="BJ69">
+        <v>0</v>
+      </c>
+      <c r="BK69">
+        <v>0</v>
+      </c>
+      <c r="BL69">
+        <v>0</v>
+      </c>
+      <c r="BM69">
+        <v>0</v>
+      </c>
+      <c r="BN69">
+        <v>0</v>
+      </c>
+      <c r="BO69">
+        <v>0</v>
+      </c>
+      <c r="BP69">
+        <v>0</v>
+      </c>
+      <c r="BQ69">
+        <v>0</v>
+      </c>
+      <c r="BR69">
+        <v>0</v>
+      </c>
+      <c r="BS69">
+        <v>0</v>
+      </c>
+      <c r="BT69">
+        <v>0</v>
+      </c>
+      <c r="BU69">
+        <v>0</v>
+      </c>
+      <c r="BV69">
+        <v>0</v>
+      </c>
+      <c r="BW69">
+        <v>0</v>
+      </c>
+      <c r="BX69">
+        <v>0</v>
+      </c>
+      <c r="BY69">
+        <v>0</v>
+      </c>
+      <c r="BZ69">
+        <v>0</v>
+      </c>
+      <c r="CA69">
+        <v>0</v>
+      </c>
+      <c r="CB69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -16309,6 +17233,237 @@
       <c r="C70">
         <v>1</v>
       </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <v>0</v>
+      </c>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>0</v>
+      </c>
+      <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>0</v>
+      </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <v>0</v>
+      </c>
+      <c r="AQ70">
+        <v>0</v>
+      </c>
+      <c r="AR70">
+        <v>0</v>
+      </c>
+      <c r="AS70">
+        <v>0</v>
+      </c>
+      <c r="AT70">
+        <v>0</v>
+      </c>
+      <c r="AU70">
+        <v>0</v>
+      </c>
+      <c r="AV70">
+        <v>0</v>
+      </c>
+      <c r="AW70">
+        <v>0</v>
+      </c>
+      <c r="AX70">
+        <v>0</v>
+      </c>
+      <c r="AY70">
+        <v>0</v>
+      </c>
+      <c r="AZ70">
+        <v>0</v>
+      </c>
+      <c r="BA70">
+        <v>0</v>
+      </c>
+      <c r="BB70">
+        <v>0</v>
+      </c>
+      <c r="BC70">
+        <v>0</v>
+      </c>
+      <c r="BD70">
+        <v>0</v>
+      </c>
+      <c r="BE70">
+        <v>0</v>
+      </c>
+      <c r="BF70">
+        <v>0</v>
+      </c>
+      <c r="BG70">
+        <v>0</v>
+      </c>
+      <c r="BH70">
+        <v>0</v>
+      </c>
+      <c r="BI70">
+        <v>0</v>
+      </c>
+      <c r="BJ70">
+        <v>0</v>
+      </c>
+      <c r="BK70">
+        <v>0</v>
+      </c>
+      <c r="BL70">
+        <v>0</v>
+      </c>
+      <c r="BM70">
+        <v>0</v>
+      </c>
+      <c r="BN70">
+        <v>0</v>
+      </c>
+      <c r="BO70">
+        <v>0</v>
+      </c>
+      <c r="BP70">
+        <v>0</v>
+      </c>
+      <c r="BQ70">
+        <v>0</v>
+      </c>
+      <c r="BR70">
+        <v>0</v>
+      </c>
+      <c r="BS70">
+        <v>0</v>
+      </c>
+      <c r="BT70">
+        <v>0</v>
+      </c>
+      <c r="BU70">
+        <v>0</v>
+      </c>
+      <c r="BV70">
+        <v>0</v>
+      </c>
+      <c r="BW70">
+        <v>0</v>
+      </c>
+      <c r="BX70">
+        <v>0</v>
+      </c>
+      <c r="BY70">
+        <v>0</v>
+      </c>
+      <c r="BZ70">
+        <v>0</v>
+      </c>
+      <c r="CA70">
+        <v>0</v>
+      </c>
+      <c r="CB70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A71">
@@ -16819,6 +17974,237 @@
       <c r="C76">
         <v>1</v>
       </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>0</v>
+      </c>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+      <c r="AP76">
+        <v>0</v>
+      </c>
+      <c r="AQ76">
+        <v>0</v>
+      </c>
+      <c r="AR76">
+        <v>0</v>
+      </c>
+      <c r="AS76">
+        <v>0</v>
+      </c>
+      <c r="AT76">
+        <v>0</v>
+      </c>
+      <c r="AU76">
+        <v>0</v>
+      </c>
+      <c r="AV76">
+        <v>0</v>
+      </c>
+      <c r="AW76">
+        <v>0</v>
+      </c>
+      <c r="AX76">
+        <v>0</v>
+      </c>
+      <c r="AY76">
+        <v>0</v>
+      </c>
+      <c r="AZ76">
+        <v>0</v>
+      </c>
+      <c r="BA76">
+        <v>0</v>
+      </c>
+      <c r="BB76">
+        <v>0</v>
+      </c>
+      <c r="BC76">
+        <v>0</v>
+      </c>
+      <c r="BD76">
+        <v>0</v>
+      </c>
+      <c r="BE76">
+        <v>0</v>
+      </c>
+      <c r="BF76">
+        <v>0</v>
+      </c>
+      <c r="BG76">
+        <v>0</v>
+      </c>
+      <c r="BH76">
+        <v>0</v>
+      </c>
+      <c r="BI76">
+        <v>0</v>
+      </c>
+      <c r="BJ76">
+        <v>0</v>
+      </c>
+      <c r="BK76">
+        <v>0</v>
+      </c>
+      <c r="BL76">
+        <v>0</v>
+      </c>
+      <c r="BM76">
+        <v>0</v>
+      </c>
+      <c r="BN76">
+        <v>0</v>
+      </c>
+      <c r="BO76">
+        <v>0</v>
+      </c>
+      <c r="BP76">
+        <v>0</v>
+      </c>
+      <c r="BQ76">
+        <v>0</v>
+      </c>
+      <c r="BR76">
+        <v>0</v>
+      </c>
+      <c r="BS76">
+        <v>0</v>
+      </c>
+      <c r="BT76">
+        <v>0</v>
+      </c>
+      <c r="BU76">
+        <v>0</v>
+      </c>
+      <c r="BV76">
+        <v>0</v>
+      </c>
+      <c r="BW76">
+        <v>0</v>
+      </c>
+      <c r="BX76">
+        <v>0</v>
+      </c>
+      <c r="BY76">
+        <v>0</v>
+      </c>
+      <c r="BZ76">
+        <v>0</v>
+      </c>
+      <c r="CA76">
+        <v>0</v>
+      </c>
+      <c r="CB76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A77">
@@ -16827,6 +18213,237 @@
       <c r="C77">
         <v>1</v>
       </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <v>0</v>
+      </c>
+      <c r="AG77">
+        <v>0</v>
+      </c>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
+      </c>
+      <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77">
+        <v>0</v>
+      </c>
+      <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>0</v>
+      </c>
+      <c r="AO77">
+        <v>0</v>
+      </c>
+      <c r="AP77">
+        <v>0</v>
+      </c>
+      <c r="AQ77">
+        <v>0</v>
+      </c>
+      <c r="AR77">
+        <v>0</v>
+      </c>
+      <c r="AS77">
+        <v>0</v>
+      </c>
+      <c r="AT77">
+        <v>0</v>
+      </c>
+      <c r="AU77">
+        <v>0</v>
+      </c>
+      <c r="AV77">
+        <v>0</v>
+      </c>
+      <c r="AW77">
+        <v>0</v>
+      </c>
+      <c r="AX77">
+        <v>0</v>
+      </c>
+      <c r="AY77">
+        <v>0</v>
+      </c>
+      <c r="AZ77">
+        <v>0</v>
+      </c>
+      <c r="BA77">
+        <v>0</v>
+      </c>
+      <c r="BB77">
+        <v>0</v>
+      </c>
+      <c r="BC77">
+        <v>0</v>
+      </c>
+      <c r="BD77">
+        <v>0</v>
+      </c>
+      <c r="BE77">
+        <v>0</v>
+      </c>
+      <c r="BF77">
+        <v>0</v>
+      </c>
+      <c r="BG77">
+        <v>0</v>
+      </c>
+      <c r="BH77">
+        <v>0</v>
+      </c>
+      <c r="BI77">
+        <v>0</v>
+      </c>
+      <c r="BJ77">
+        <v>0</v>
+      </c>
+      <c r="BK77">
+        <v>0</v>
+      </c>
+      <c r="BL77">
+        <v>0</v>
+      </c>
+      <c r="BM77">
+        <v>0</v>
+      </c>
+      <c r="BN77">
+        <v>0</v>
+      </c>
+      <c r="BO77">
+        <v>0</v>
+      </c>
+      <c r="BP77">
+        <v>0</v>
+      </c>
+      <c r="BQ77">
+        <v>0</v>
+      </c>
+      <c r="BR77">
+        <v>0</v>
+      </c>
+      <c r="BS77">
+        <v>0</v>
+      </c>
+      <c r="BT77">
+        <v>0</v>
+      </c>
+      <c r="BU77">
+        <v>0</v>
+      </c>
+      <c r="BV77">
+        <v>0</v>
+      </c>
+      <c r="BW77">
+        <v>0</v>
+      </c>
+      <c r="BX77">
+        <v>0</v>
+      </c>
+      <c r="BY77">
+        <v>0</v>
+      </c>
+      <c r="BZ77">
+        <v>0</v>
+      </c>
+      <c r="CA77">
+        <v>0</v>
+      </c>
+      <c r="CB77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -17090,6 +18707,237 @@
       <c r="C81">
         <v>2</v>
       </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>1</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>1</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>0</v>
+      </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>0</v>
+      </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <v>0</v>
+      </c>
+      <c r="AQ81">
+        <v>0</v>
+      </c>
+      <c r="AR81">
+        <v>0</v>
+      </c>
+      <c r="AS81">
+        <v>0</v>
+      </c>
+      <c r="AT81">
+        <v>0</v>
+      </c>
+      <c r="AU81">
+        <v>0</v>
+      </c>
+      <c r="AV81">
+        <v>0</v>
+      </c>
+      <c r="AW81">
+        <v>0</v>
+      </c>
+      <c r="AX81">
+        <v>0</v>
+      </c>
+      <c r="AY81">
+        <v>0</v>
+      </c>
+      <c r="AZ81">
+        <v>0</v>
+      </c>
+      <c r="BA81">
+        <v>0</v>
+      </c>
+      <c r="BB81">
+        <v>0</v>
+      </c>
+      <c r="BC81">
+        <v>0</v>
+      </c>
+      <c r="BD81">
+        <v>0</v>
+      </c>
+      <c r="BE81">
+        <v>0</v>
+      </c>
+      <c r="BF81">
+        <v>0</v>
+      </c>
+      <c r="BG81">
+        <v>0</v>
+      </c>
+      <c r="BH81">
+        <v>0</v>
+      </c>
+      <c r="BI81">
+        <v>0</v>
+      </c>
+      <c r="BJ81">
+        <v>0</v>
+      </c>
+      <c r="BK81">
+        <v>0</v>
+      </c>
+      <c r="BL81">
+        <v>0</v>
+      </c>
+      <c r="BM81">
+        <v>0</v>
+      </c>
+      <c r="BN81">
+        <v>0</v>
+      </c>
+      <c r="BO81">
+        <v>0</v>
+      </c>
+      <c r="BP81">
+        <v>0</v>
+      </c>
+      <c r="BQ81">
+        <v>0</v>
+      </c>
+      <c r="BR81">
+        <v>0</v>
+      </c>
+      <c r="BS81">
+        <v>0</v>
+      </c>
+      <c r="BT81">
+        <v>0</v>
+      </c>
+      <c r="BU81">
+        <v>0</v>
+      </c>
+      <c r="BV81">
+        <v>0</v>
+      </c>
+      <c r="BW81">
+        <v>0</v>
+      </c>
+      <c r="BX81">
+        <v>0</v>
+      </c>
+      <c r="BY81">
+        <v>0</v>
+      </c>
+      <c r="BZ81">
+        <v>0</v>
+      </c>
+      <c r="CA81">
+        <v>0</v>
+      </c>
+      <c r="CB81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A82">
@@ -17360,6 +19208,237 @@
       </c>
       <c r="C86">
         <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>0</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <v>0</v>
+      </c>
+      <c r="AM86">
+        <v>0</v>
+      </c>
+      <c r="AN86">
+        <v>0</v>
+      </c>
+      <c r="AO86">
+        <v>0</v>
+      </c>
+      <c r="AP86">
+        <v>0</v>
+      </c>
+      <c r="AQ86">
+        <v>0</v>
+      </c>
+      <c r="AR86">
+        <v>0</v>
+      </c>
+      <c r="AS86">
+        <v>0</v>
+      </c>
+      <c r="AT86">
+        <v>0</v>
+      </c>
+      <c r="AU86">
+        <v>0</v>
+      </c>
+      <c r="AV86">
+        <v>0</v>
+      </c>
+      <c r="AW86">
+        <v>0</v>
+      </c>
+      <c r="AX86">
+        <v>0</v>
+      </c>
+      <c r="AY86">
+        <v>0</v>
+      </c>
+      <c r="AZ86">
+        <v>0</v>
+      </c>
+      <c r="BA86">
+        <v>0</v>
+      </c>
+      <c r="BB86">
+        <v>0</v>
+      </c>
+      <c r="BC86">
+        <v>0</v>
+      </c>
+      <c r="BD86">
+        <v>0</v>
+      </c>
+      <c r="BE86">
+        <v>0</v>
+      </c>
+      <c r="BF86">
+        <v>0</v>
+      </c>
+      <c r="BG86">
+        <v>0</v>
+      </c>
+      <c r="BH86">
+        <v>0</v>
+      </c>
+      <c r="BI86">
+        <v>0</v>
+      </c>
+      <c r="BJ86">
+        <v>0</v>
+      </c>
+      <c r="BK86">
+        <v>0</v>
+      </c>
+      <c r="BL86">
+        <v>0</v>
+      </c>
+      <c r="BM86">
+        <v>0</v>
+      </c>
+      <c r="BN86">
+        <v>0</v>
+      </c>
+      <c r="BO86">
+        <v>0</v>
+      </c>
+      <c r="BP86">
+        <v>0</v>
+      </c>
+      <c r="BQ86">
+        <v>0</v>
+      </c>
+      <c r="BR86">
+        <v>0</v>
+      </c>
+      <c r="BS86">
+        <v>0</v>
+      </c>
+      <c r="BT86">
+        <v>0</v>
+      </c>
+      <c r="BU86">
+        <v>0</v>
+      </c>
+      <c r="BV86">
+        <v>0</v>
+      </c>
+      <c r="BW86">
+        <v>0</v>
+      </c>
+      <c r="BX86">
+        <v>0</v>
+      </c>
+      <c r="BY86">
+        <v>0</v>
+      </c>
+      <c r="BZ86">
+        <v>0</v>
+      </c>
+      <c r="CA86">
+        <v>0</v>
+      </c>
+      <c r="CB86">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Lovejoy data table_Frequency of capture.xlsx
+++ b/Lovejoy data table_Frequency of capture.xlsx
@@ -536,9 +536,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CC84" sqref="CC84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17472,6 +17472,237 @@
       <c r="C71">
         <v>5</v>
       </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>1</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>0</v>
+      </c>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AJ71">
+        <v>1</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>0</v>
+      </c>
+      <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>0</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+      <c r="AP71">
+        <v>0</v>
+      </c>
+      <c r="AQ71">
+        <v>0</v>
+      </c>
+      <c r="AR71">
+        <v>0</v>
+      </c>
+      <c r="AS71">
+        <v>0</v>
+      </c>
+      <c r="AT71">
+        <v>1</v>
+      </c>
+      <c r="AU71">
+        <v>0</v>
+      </c>
+      <c r="AV71">
+        <v>0</v>
+      </c>
+      <c r="AW71">
+        <v>0</v>
+      </c>
+      <c r="AX71">
+        <v>0</v>
+      </c>
+      <c r="AY71">
+        <v>0</v>
+      </c>
+      <c r="AZ71">
+        <v>0</v>
+      </c>
+      <c r="BA71">
+        <v>0</v>
+      </c>
+      <c r="BB71">
+        <v>0</v>
+      </c>
+      <c r="BC71">
+        <v>0</v>
+      </c>
+      <c r="BD71">
+        <v>0</v>
+      </c>
+      <c r="BE71">
+        <v>0</v>
+      </c>
+      <c r="BF71">
+        <v>0</v>
+      </c>
+      <c r="BG71">
+        <v>0</v>
+      </c>
+      <c r="BH71">
+        <v>0</v>
+      </c>
+      <c r="BI71">
+        <v>0</v>
+      </c>
+      <c r="BJ71">
+        <v>0</v>
+      </c>
+      <c r="BK71">
+        <v>0</v>
+      </c>
+      <c r="BL71">
+        <v>0</v>
+      </c>
+      <c r="BM71">
+        <v>0</v>
+      </c>
+      <c r="BN71">
+        <v>0</v>
+      </c>
+      <c r="BO71">
+        <v>0</v>
+      </c>
+      <c r="BP71">
+        <v>0</v>
+      </c>
+      <c r="BQ71">
+        <v>0</v>
+      </c>
+      <c r="BR71">
+        <v>0</v>
+      </c>
+      <c r="BS71">
+        <v>0</v>
+      </c>
+      <c r="BT71">
+        <v>0</v>
+      </c>
+      <c r="BU71">
+        <v>0</v>
+      </c>
+      <c r="BV71">
+        <v>0</v>
+      </c>
+      <c r="BW71">
+        <v>0</v>
+      </c>
+      <c r="BX71">
+        <v>0</v>
+      </c>
+      <c r="BY71">
+        <v>0</v>
+      </c>
+      <c r="BZ71">
+        <v>0</v>
+      </c>
+      <c r="CA71">
+        <v>0</v>
+      </c>
+      <c r="CB71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A72">
@@ -17719,6 +17950,237 @@
       <c r="C73">
         <v>110</v>
       </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>5</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>3</v>
+      </c>
+      <c r="T73">
+        <v>2</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>2</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>3</v>
+      </c>
+      <c r="Y73">
+        <v>1</v>
+      </c>
+      <c r="Z73">
+        <v>2</v>
+      </c>
+      <c r="AA73">
+        <v>1</v>
+      </c>
+      <c r="AB73">
+        <v>2</v>
+      </c>
+      <c r="AC73">
+        <v>1</v>
+      </c>
+      <c r="AD73">
+        <v>3</v>
+      </c>
+      <c r="AE73">
+        <v>7</v>
+      </c>
+      <c r="AF73">
+        <v>3</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+      <c r="AH73">
+        <v>5</v>
+      </c>
+      <c r="AI73">
+        <v>4</v>
+      </c>
+      <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>0</v>
+      </c>
+      <c r="AM73">
+        <v>3</v>
+      </c>
+      <c r="AN73">
+        <v>3</v>
+      </c>
+      <c r="AO73">
+        <v>3</v>
+      </c>
+      <c r="AP73">
+        <v>0</v>
+      </c>
+      <c r="AQ73">
+        <v>1</v>
+      </c>
+      <c r="AR73">
+        <v>4</v>
+      </c>
+      <c r="AS73">
+        <v>1</v>
+      </c>
+      <c r="AT73">
+        <v>0</v>
+      </c>
+      <c r="AU73">
+        <v>1</v>
+      </c>
+      <c r="AV73">
+        <v>1</v>
+      </c>
+      <c r="AW73">
+        <v>1</v>
+      </c>
+      <c r="AX73">
+        <v>2</v>
+      </c>
+      <c r="AY73">
+        <v>1</v>
+      </c>
+      <c r="AZ73">
+        <v>0</v>
+      </c>
+      <c r="BA73">
+        <v>0</v>
+      </c>
+      <c r="BB73">
+        <v>2</v>
+      </c>
+      <c r="BC73">
+        <v>5</v>
+      </c>
+      <c r="BD73">
+        <v>0</v>
+      </c>
+      <c r="BE73">
+        <v>0</v>
+      </c>
+      <c r="BF73">
+        <v>0</v>
+      </c>
+      <c r="BG73">
+        <v>0</v>
+      </c>
+      <c r="BH73">
+        <v>0</v>
+      </c>
+      <c r="BI73">
+        <v>0</v>
+      </c>
+      <c r="BJ73">
+        <v>0</v>
+      </c>
+      <c r="BK73">
+        <v>0</v>
+      </c>
+      <c r="BL73">
+        <v>0</v>
+      </c>
+      <c r="BM73">
+        <v>0</v>
+      </c>
+      <c r="BN73">
+        <v>0</v>
+      </c>
+      <c r="BO73">
+        <v>0</v>
+      </c>
+      <c r="BP73">
+        <v>3</v>
+      </c>
+      <c r="BQ73">
+        <v>2</v>
+      </c>
+      <c r="BR73">
+        <v>2</v>
+      </c>
+      <c r="BS73">
+        <v>2</v>
+      </c>
+      <c r="BT73">
+        <v>2</v>
+      </c>
+      <c r="BU73">
+        <v>3</v>
+      </c>
+      <c r="BV73">
+        <v>0</v>
+      </c>
+      <c r="BW73">
+        <v>3</v>
+      </c>
+      <c r="BX73">
+        <v>1</v>
+      </c>
+      <c r="BY73">
+        <v>1</v>
+      </c>
+      <c r="BZ73">
+        <v>3</v>
+      </c>
+      <c r="CA73">
+        <v>0</v>
+      </c>
+      <c r="CB73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A74">
@@ -17966,6 +18428,237 @@
       <c r="C75">
         <v>185</v>
       </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>1</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>1</v>
+      </c>
+      <c r="X75">
+        <v>2</v>
+      </c>
+      <c r="Y75">
+        <v>1</v>
+      </c>
+      <c r="Z75">
+        <v>2</v>
+      </c>
+      <c r="AA75">
+        <v>2</v>
+      </c>
+      <c r="AB75">
+        <v>4</v>
+      </c>
+      <c r="AC75">
+        <v>3</v>
+      </c>
+      <c r="AD75">
+        <v>4</v>
+      </c>
+      <c r="AE75">
+        <v>5</v>
+      </c>
+      <c r="AF75">
+        <v>1</v>
+      </c>
+      <c r="AG75">
+        <v>4</v>
+      </c>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>2</v>
+      </c>
+      <c r="AJ75">
+        <v>1</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>1</v>
+      </c>
+      <c r="AQ75">
+        <v>2</v>
+      </c>
+      <c r="AR75">
+        <v>4</v>
+      </c>
+      <c r="AS75">
+        <v>0</v>
+      </c>
+      <c r="AT75">
+        <v>0</v>
+      </c>
+      <c r="AU75">
+        <v>13</v>
+      </c>
+      <c r="AV75">
+        <v>7</v>
+      </c>
+      <c r="AW75">
+        <v>2</v>
+      </c>
+      <c r="AX75">
+        <v>0</v>
+      </c>
+      <c r="AY75">
+        <v>11</v>
+      </c>
+      <c r="AZ75">
+        <v>12</v>
+      </c>
+      <c r="BA75">
+        <v>6</v>
+      </c>
+      <c r="BB75">
+        <v>10</v>
+      </c>
+      <c r="BC75">
+        <v>2</v>
+      </c>
+      <c r="BD75">
+        <v>7</v>
+      </c>
+      <c r="BE75">
+        <v>3</v>
+      </c>
+      <c r="BF75">
+        <v>0</v>
+      </c>
+      <c r="BG75">
+        <v>0</v>
+      </c>
+      <c r="BH75">
+        <v>1</v>
+      </c>
+      <c r="BI75">
+        <v>0</v>
+      </c>
+      <c r="BJ75">
+        <v>0</v>
+      </c>
+      <c r="BK75">
+        <v>1</v>
+      </c>
+      <c r="BL75">
+        <v>0</v>
+      </c>
+      <c r="BM75">
+        <v>0</v>
+      </c>
+      <c r="BN75">
+        <v>2</v>
+      </c>
+      <c r="BO75">
+        <v>1</v>
+      </c>
+      <c r="BP75">
+        <v>6</v>
+      </c>
+      <c r="BQ75">
+        <v>3</v>
+      </c>
+      <c r="BR75">
+        <v>3</v>
+      </c>
+      <c r="BS75">
+        <v>4</v>
+      </c>
+      <c r="BT75">
+        <v>4</v>
+      </c>
+      <c r="BU75">
+        <v>6</v>
+      </c>
+      <c r="BV75">
+        <v>5</v>
+      </c>
+      <c r="BW75">
+        <v>5</v>
+      </c>
+      <c r="BX75">
+        <v>3</v>
+      </c>
+      <c r="BY75">
+        <v>2</v>
+      </c>
+      <c r="BZ75">
+        <v>7</v>
+      </c>
+      <c r="CA75">
+        <v>11</v>
+      </c>
+      <c r="CB75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A76">
@@ -18452,6 +19145,234 @@
       <c r="C78">
         <v>25</v>
       </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>2</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>1</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
+        <v>1</v>
+      </c>
+      <c r="AH78">
+        <v>1</v>
+      </c>
+      <c r="AJ78">
+        <v>1</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>0</v>
+      </c>
+      <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
+        <v>1</v>
+      </c>
+      <c r="AP78">
+        <v>0</v>
+      </c>
+      <c r="AQ78">
+        <v>0</v>
+      </c>
+      <c r="AR78">
+        <v>0</v>
+      </c>
+      <c r="AS78">
+        <v>0</v>
+      </c>
+      <c r="AT78">
+        <v>1</v>
+      </c>
+      <c r="AU78">
+        <v>0</v>
+      </c>
+      <c r="AV78">
+        <v>0</v>
+      </c>
+      <c r="AW78">
+        <v>0</v>
+      </c>
+      <c r="AX78">
+        <v>0</v>
+      </c>
+      <c r="AY78">
+        <v>0</v>
+      </c>
+      <c r="AZ78">
+        <v>0</v>
+      </c>
+      <c r="BA78">
+        <v>0</v>
+      </c>
+      <c r="BB78">
+        <v>0</v>
+      </c>
+      <c r="BC78">
+        <v>1</v>
+      </c>
+      <c r="BD78">
+        <v>1</v>
+      </c>
+      <c r="BE78">
+        <v>0</v>
+      </c>
+      <c r="BF78">
+        <v>0</v>
+      </c>
+      <c r="BG78">
+        <v>0</v>
+      </c>
+      <c r="BH78">
+        <v>0</v>
+      </c>
+      <c r="BI78">
+        <v>0</v>
+      </c>
+      <c r="BJ78">
+        <v>0</v>
+      </c>
+      <c r="BK78">
+        <v>0</v>
+      </c>
+      <c r="BL78">
+        <v>0</v>
+      </c>
+      <c r="BM78">
+        <v>0</v>
+      </c>
+      <c r="BN78">
+        <v>0</v>
+      </c>
+      <c r="BO78">
+        <v>0</v>
+      </c>
+      <c r="BP78">
+        <v>0</v>
+      </c>
+      <c r="BQ78">
+        <v>0</v>
+      </c>
+      <c r="BR78">
+        <v>1</v>
+      </c>
+      <c r="BS78">
+        <v>2</v>
+      </c>
+      <c r="BT78">
+        <v>0</v>
+      </c>
+      <c r="BU78">
+        <v>0</v>
+      </c>
+      <c r="BV78">
+        <v>0</v>
+      </c>
+      <c r="BW78">
+        <v>0</v>
+      </c>
+      <c r="BX78">
+        <v>2</v>
+      </c>
+      <c r="BY78">
+        <v>0</v>
+      </c>
+      <c r="BZ78">
+        <v>4</v>
+      </c>
+      <c r="CA78">
+        <v>1</v>
+      </c>
+      <c r="CB78">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A79">
@@ -18460,6 +19381,237 @@
       <c r="C79">
         <v>187</v>
       </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>4</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>2</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>3</v>
+      </c>
+      <c r="P79">
+        <v>5</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>3</v>
+      </c>
+      <c r="S79">
+        <v>1</v>
+      </c>
+      <c r="T79">
+        <v>3</v>
+      </c>
+      <c r="U79">
+        <v>2</v>
+      </c>
+      <c r="V79">
+        <v>4</v>
+      </c>
+      <c r="W79">
+        <v>2</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>4</v>
+      </c>
+      <c r="Z79">
+        <v>1</v>
+      </c>
+      <c r="AA79">
+        <v>1</v>
+      </c>
+      <c r="AB79">
+        <v>1</v>
+      </c>
+      <c r="AC79">
+        <v>2</v>
+      </c>
+      <c r="AD79">
+        <v>1</v>
+      </c>
+      <c r="AE79">
+        <v>7</v>
+      </c>
+      <c r="AF79">
+        <v>2</v>
+      </c>
+      <c r="AG79">
+        <v>2</v>
+      </c>
+      <c r="AH79">
+        <v>6</v>
+      </c>
+      <c r="AI79">
+        <v>6</v>
+      </c>
+      <c r="AJ79">
+        <v>4</v>
+      </c>
+      <c r="AK79">
+        <v>1</v>
+      </c>
+      <c r="AL79">
+        <v>4</v>
+      </c>
+      <c r="AM79">
+        <v>2</v>
+      </c>
+      <c r="AN79">
+        <v>2</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79">
+        <v>1</v>
+      </c>
+      <c r="AQ79">
+        <v>5</v>
+      </c>
+      <c r="AR79">
+        <v>1</v>
+      </c>
+      <c r="AS79">
+        <v>6</v>
+      </c>
+      <c r="AT79">
+        <v>4</v>
+      </c>
+      <c r="AU79">
+        <v>4</v>
+      </c>
+      <c r="AV79">
+        <v>2</v>
+      </c>
+      <c r="AW79">
+        <v>7</v>
+      </c>
+      <c r="AX79">
+        <v>6</v>
+      </c>
+      <c r="AY79">
+        <v>5</v>
+      </c>
+      <c r="AZ79">
+        <v>7</v>
+      </c>
+      <c r="BA79">
+        <v>6</v>
+      </c>
+      <c r="BB79">
+        <v>4</v>
+      </c>
+      <c r="BC79">
+        <v>4</v>
+      </c>
+      <c r="BD79">
+        <v>6</v>
+      </c>
+      <c r="BE79">
+        <v>1</v>
+      </c>
+      <c r="BF79">
+        <v>0</v>
+      </c>
+      <c r="BG79">
+        <v>0</v>
+      </c>
+      <c r="BH79">
+        <v>0</v>
+      </c>
+      <c r="BI79">
+        <v>0</v>
+      </c>
+      <c r="BJ79">
+        <v>1</v>
+      </c>
+      <c r="BK79">
+        <v>2</v>
+      </c>
+      <c r="BL79">
+        <v>3</v>
+      </c>
+      <c r="BM79">
+        <v>1</v>
+      </c>
+      <c r="BN79">
+        <v>0</v>
+      </c>
+      <c r="BO79">
+        <v>2</v>
+      </c>
+      <c r="BP79">
+        <v>4</v>
+      </c>
+      <c r="BQ79">
+        <v>3</v>
+      </c>
+      <c r="BR79">
+        <v>0</v>
+      </c>
+      <c r="BS79">
+        <v>3</v>
+      </c>
+      <c r="BT79">
+        <v>3</v>
+      </c>
+      <c r="BU79">
+        <v>1</v>
+      </c>
+      <c r="BV79">
+        <v>1</v>
+      </c>
+      <c r="BW79">
+        <v>2</v>
+      </c>
+      <c r="BX79">
+        <v>1</v>
+      </c>
+      <c r="BY79">
+        <v>0</v>
+      </c>
+      <c r="BZ79">
+        <v>4</v>
+      </c>
+      <c r="CA79">
+        <v>4</v>
+      </c>
+      <c r="CB79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -18946,6 +20098,237 @@
       <c r="C82">
         <v>228</v>
       </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>19</v>
+      </c>
+      <c r="F82">
+        <v>7</v>
+      </c>
+      <c r="G82">
+        <v>5</v>
+      </c>
+      <c r="H82">
+        <v>6</v>
+      </c>
+      <c r="I82">
+        <v>10</v>
+      </c>
+      <c r="J82">
+        <v>5</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>3</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82">
+        <v>8</v>
+      </c>
+      <c r="P82">
+        <v>3</v>
+      </c>
+      <c r="Q82">
+        <v>4</v>
+      </c>
+      <c r="R82">
+        <v>7</v>
+      </c>
+      <c r="S82">
+        <v>3</v>
+      </c>
+      <c r="T82">
+        <v>2</v>
+      </c>
+      <c r="U82">
+        <v>14</v>
+      </c>
+      <c r="V82">
+        <v>6</v>
+      </c>
+      <c r="W82">
+        <v>7</v>
+      </c>
+      <c r="X82">
+        <v>1</v>
+      </c>
+      <c r="Y82">
+        <v>1</v>
+      </c>
+      <c r="Z82">
+        <v>1</v>
+      </c>
+      <c r="AA82">
+        <v>3</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>3</v>
+      </c>
+      <c r="AD82">
+        <v>1</v>
+      </c>
+      <c r="AE82">
+        <v>1</v>
+      </c>
+      <c r="AF82">
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <v>2</v>
+      </c>
+      <c r="AH82">
+        <v>1</v>
+      </c>
+      <c r="AI82">
+        <v>6</v>
+      </c>
+      <c r="AJ82">
+        <v>1</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
+        <v>10</v>
+      </c>
+      <c r="AN82">
+        <v>5</v>
+      </c>
+      <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>0</v>
+      </c>
+      <c r="AQ82">
+        <v>0</v>
+      </c>
+      <c r="AR82">
+        <v>1</v>
+      </c>
+      <c r="AS82">
+        <v>23</v>
+      </c>
+      <c r="AT82">
+        <v>5</v>
+      </c>
+      <c r="AU82">
+        <v>0</v>
+      </c>
+      <c r="AV82">
+        <v>1</v>
+      </c>
+      <c r="AW82">
+        <v>0</v>
+      </c>
+      <c r="AX82">
+        <v>1</v>
+      </c>
+      <c r="AY82">
+        <v>1</v>
+      </c>
+      <c r="AZ82">
+        <v>0</v>
+      </c>
+      <c r="BA82">
+        <v>3</v>
+      </c>
+      <c r="BB82">
+        <v>3</v>
+      </c>
+      <c r="BC82">
+        <v>4</v>
+      </c>
+      <c r="BD82">
+        <v>0</v>
+      </c>
+      <c r="BE82">
+        <v>1</v>
+      </c>
+      <c r="BF82">
+        <v>0</v>
+      </c>
+      <c r="BG82">
+        <v>1</v>
+      </c>
+      <c r="BH82">
+        <v>0</v>
+      </c>
+      <c r="BI82">
+        <v>1</v>
+      </c>
+      <c r="BJ82">
+        <v>1</v>
+      </c>
+      <c r="BK82">
+        <v>4</v>
+      </c>
+      <c r="BL82">
+        <v>0</v>
+      </c>
+      <c r="BM82">
+        <v>0</v>
+      </c>
+      <c r="BN82">
+        <v>2</v>
+      </c>
+      <c r="BO82">
+        <v>1</v>
+      </c>
+      <c r="BP82">
+        <v>1</v>
+      </c>
+      <c r="BQ82">
+        <v>1</v>
+      </c>
+      <c r="BR82">
+        <v>0</v>
+      </c>
+      <c r="BS82">
+        <v>0</v>
+      </c>
+      <c r="BT82">
+        <v>2</v>
+      </c>
+      <c r="BU82">
+        <v>1</v>
+      </c>
+      <c r="BV82">
+        <v>1</v>
+      </c>
+      <c r="BW82">
+        <v>2</v>
+      </c>
+      <c r="BX82">
+        <v>0</v>
+      </c>
+      <c r="BY82">
+        <v>0</v>
+      </c>
+      <c r="BZ82">
+        <v>1</v>
+      </c>
+      <c r="CA82">
+        <v>8</v>
+      </c>
+      <c r="CB82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A83">
@@ -18954,6 +20337,237 @@
       <c r="C83">
         <v>9</v>
       </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>1</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>1</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>0</v>
+      </c>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>0</v>
+      </c>
+      <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>0</v>
+      </c>
+      <c r="AO83">
+        <v>0</v>
+      </c>
+      <c r="AP83">
+        <v>0</v>
+      </c>
+      <c r="AQ83">
+        <v>0</v>
+      </c>
+      <c r="AR83">
+        <v>0</v>
+      </c>
+      <c r="AS83">
+        <v>0</v>
+      </c>
+      <c r="AT83">
+        <v>0</v>
+      </c>
+      <c r="AU83">
+        <v>0</v>
+      </c>
+      <c r="AV83">
+        <v>0</v>
+      </c>
+      <c r="AW83">
+        <v>0</v>
+      </c>
+      <c r="AX83">
+        <v>0</v>
+      </c>
+      <c r="AY83">
+        <v>0</v>
+      </c>
+      <c r="AZ83">
+        <v>0</v>
+      </c>
+      <c r="BA83">
+        <v>0</v>
+      </c>
+      <c r="BB83">
+        <v>0</v>
+      </c>
+      <c r="BC83">
+        <v>0</v>
+      </c>
+      <c r="BD83">
+        <v>0</v>
+      </c>
+      <c r="BE83">
+        <v>0</v>
+      </c>
+      <c r="BF83">
+        <v>0</v>
+      </c>
+      <c r="BG83">
+        <v>0</v>
+      </c>
+      <c r="BH83">
+        <v>0</v>
+      </c>
+      <c r="BI83">
+        <v>0</v>
+      </c>
+      <c r="BJ83">
+        <v>0</v>
+      </c>
+      <c r="BK83">
+        <v>0</v>
+      </c>
+      <c r="BL83">
+        <v>0</v>
+      </c>
+      <c r="BM83">
+        <v>0</v>
+      </c>
+      <c r="BN83">
+        <v>0</v>
+      </c>
+      <c r="BO83">
+        <v>0</v>
+      </c>
+      <c r="BP83">
+        <v>0</v>
+      </c>
+      <c r="BQ83">
+        <v>0</v>
+      </c>
+      <c r="BR83">
+        <v>0</v>
+      </c>
+      <c r="BS83">
+        <v>0</v>
+      </c>
+      <c r="BT83">
+        <v>0</v>
+      </c>
+      <c r="BU83">
+        <v>0</v>
+      </c>
+      <c r="BV83">
+        <v>0</v>
+      </c>
+      <c r="BW83">
+        <v>0</v>
+      </c>
+      <c r="BX83">
+        <v>0</v>
+      </c>
+      <c r="BY83">
+        <v>0</v>
+      </c>
+      <c r="BZ83">
+        <v>0</v>
+      </c>
+      <c r="CA83">
+        <v>0</v>
+      </c>
+      <c r="CB83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A84">
@@ -18961,6 +20575,237 @@
       </c>
       <c r="C84">
         <v>7</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>3</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
+        <v>0</v>
+      </c>
+      <c r="AG84">
+        <v>0</v>
+      </c>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>2</v>
+      </c>
+      <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <v>0</v>
+      </c>
+      <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>0</v>
+      </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
+      <c r="AP84">
+        <v>0</v>
+      </c>
+      <c r="AQ84">
+        <v>0</v>
+      </c>
+      <c r="AR84">
+        <v>0</v>
+      </c>
+      <c r="AS84">
+        <v>0</v>
+      </c>
+      <c r="AT84">
+        <v>0</v>
+      </c>
+      <c r="AU84">
+        <v>0</v>
+      </c>
+      <c r="AV84">
+        <v>0</v>
+      </c>
+      <c r="AW84">
+        <v>0</v>
+      </c>
+      <c r="AX84">
+        <v>0</v>
+      </c>
+      <c r="AY84">
+        <v>0</v>
+      </c>
+      <c r="AZ84">
+        <v>0</v>
+      </c>
+      <c r="BA84">
+        <v>0</v>
+      </c>
+      <c r="BB84">
+        <v>0</v>
+      </c>
+      <c r="BC84">
+        <v>0</v>
+      </c>
+      <c r="BD84">
+        <v>0</v>
+      </c>
+      <c r="BE84">
+        <v>0</v>
+      </c>
+      <c r="BF84">
+        <v>0</v>
+      </c>
+      <c r="BG84">
+        <v>0</v>
+      </c>
+      <c r="BH84">
+        <v>0</v>
+      </c>
+      <c r="BI84">
+        <v>0</v>
+      </c>
+      <c r="BJ84">
+        <v>0</v>
+      </c>
+      <c r="BK84">
+        <v>0</v>
+      </c>
+      <c r="BL84">
+        <v>0</v>
+      </c>
+      <c r="BM84">
+        <v>0</v>
+      </c>
+      <c r="BN84">
+        <v>0</v>
+      </c>
+      <c r="BO84">
+        <v>0</v>
+      </c>
+      <c r="BP84">
+        <v>0</v>
+      </c>
+      <c r="BQ84">
+        <v>0</v>
+      </c>
+      <c r="BR84">
+        <v>0</v>
+      </c>
+      <c r="BS84">
+        <v>0</v>
+      </c>
+      <c r="BT84">
+        <v>0</v>
+      </c>
+      <c r="BU84">
+        <v>0</v>
+      </c>
+      <c r="BV84">
+        <v>0</v>
+      </c>
+      <c r="BW84">
+        <v>0</v>
+      </c>
+      <c r="BX84">
+        <v>0</v>
+      </c>
+      <c r="BY84">
+        <v>0</v>
+      </c>
+      <c r="BZ84">
+        <v>0</v>
+      </c>
+      <c r="CA84">
+        <v>0</v>
+      </c>
+      <c r="CB84">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:80" x14ac:dyDescent="0.25">
